--- a/Evolution_Data_Mining/Phanerozoic_Data_Mining/Datapack/prokoph_data_table_2.xlsx
+++ b/Evolution_Data_Mining/Phanerozoic_Data_Mining/Datapack/prokoph_data_table_2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2700" yWindow="460" windowWidth="29260" windowHeight="16180"/>
+    <workbookView xWindow="14080" yWindow="460" windowWidth="32000" windowHeight="16180"/>
   </bookViews>
   <sheets>
     <sheet name="Table 2" sheetId="1" r:id="rId1"/>
@@ -281,8 +281,40 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -292,9 +324,41 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="35">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -607,19 +671,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G143"/>
+  <dimension ref="A1:G522"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
-      <selection activeCell="F137" sqref="F137"/>
+    <sheetView tabSelected="1" topLeftCell="A504" zoomScale="176" zoomScaleNormal="176" zoomScalePageLayoutView="176" workbookViewId="0">
+      <selection activeCell="C523" sqref="C523"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.5" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.6640625" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
     <col min="5" max="5" width="10.83203125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="39" style="3" customWidth="1"/>
+    <col min="6" max="6" width="8.5" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -3909,6 +3974,7163 @@
       </c>
       <c r="G143">
         <v>-6.58</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>142</v>
+      </c>
+      <c r="B144">
+        <v>9.0000000000000006E-5</v>
+      </c>
+      <c r="C144">
+        <v>0.70727600000000002</v>
+      </c>
+      <c r="D144">
+        <v>13.0023</v>
+      </c>
+      <c r="E144" s="3">
+        <v>152.69999999999999</v>
+      </c>
+      <c r="F144" s="3">
+        <v>273.5</v>
+      </c>
+      <c r="G144">
+        <v>2.0299999999999998</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>143</v>
+      </c>
+      <c r="B145">
+        <v>1.0300000000000001E-3</v>
+      </c>
+      <c r="C145">
+        <v>0.70732399999999995</v>
+      </c>
+      <c r="D145">
+        <v>13.0001</v>
+      </c>
+      <c r="E145" s="3">
+        <v>164.5</v>
+      </c>
+      <c r="F145" s="3">
+        <v>303.60000000000002</v>
+      </c>
+      <c r="G145">
+        <v>-3.5</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>144</v>
+      </c>
+      <c r="B146">
+        <v>7.6E-3</v>
+      </c>
+      <c r="C146">
+        <v>0.70732099999999998</v>
+      </c>
+      <c r="D146">
+        <v>13</v>
+      </c>
+      <c r="E146" s="3">
+        <v>175.9</v>
+      </c>
+      <c r="F146" s="3">
+        <v>332</v>
+      </c>
+      <c r="G146">
+        <v>4.83</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>145</v>
+      </c>
+      <c r="B147">
+        <v>3.5990000000000001E-2</v>
+      </c>
+      <c r="C147">
+        <v>0.70729900000000001</v>
+      </c>
+      <c r="D147">
+        <v>13</v>
+      </c>
+      <c r="E147" s="3">
+        <v>190.6</v>
+      </c>
+      <c r="F147" s="3">
+        <v>365.3</v>
+      </c>
+      <c r="G147">
+        <v>13.01</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>146</v>
+      </c>
+      <c r="B148">
+        <v>0.10934000000000001</v>
+      </c>
+      <c r="C148">
+        <v>0.70723100000000005</v>
+      </c>
+      <c r="D148">
+        <v>13.0001</v>
+      </c>
+      <c r="E148" s="3">
+        <v>214.3</v>
+      </c>
+      <c r="F148" s="3">
+        <v>415.3</v>
+      </c>
+      <c r="G148">
+        <v>124.06</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>147</v>
+      </c>
+      <c r="B149">
+        <v>0.21296999999999999</v>
+      </c>
+      <c r="C149">
+        <v>0.70718800000000004</v>
+      </c>
+      <c r="D149">
+        <v>13.037699999999999</v>
+      </c>
+      <c r="E149" s="3">
+        <v>242.3</v>
+      </c>
+      <c r="F149" s="3">
+        <v>472.2</v>
+      </c>
+      <c r="G149">
+        <v>131.96</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>148</v>
+      </c>
+      <c r="B150">
+        <v>0.26595999999999997</v>
+      </c>
+      <c r="C150">
+        <v>0.70716299999999999</v>
+      </c>
+      <c r="D150">
+        <v>16.0002</v>
+      </c>
+      <c r="E150" s="3">
+        <v>250.1</v>
+      </c>
+      <c r="F150" s="3">
+        <v>487.6</v>
+      </c>
+      <c r="G150">
+        <v>139.72</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>149</v>
+      </c>
+      <c r="B151">
+        <v>0.21296999999999999</v>
+      </c>
+      <c r="C151">
+        <v>0.70710899999999999</v>
+      </c>
+      <c r="D151">
+        <v>16</v>
+      </c>
+      <c r="E151" s="3">
+        <v>221.9</v>
+      </c>
+      <c r="F151" s="3">
+        <v>430</v>
+      </c>
+      <c r="G151">
+        <v>161.85</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <v>150</v>
+      </c>
+      <c r="B152">
+        <v>0.10934000000000001</v>
+      </c>
+      <c r="C152">
+        <v>0.70702399999999999</v>
+      </c>
+      <c r="D152">
+        <v>16</v>
+      </c>
+      <c r="E152" s="3">
+        <v>175.4</v>
+      </c>
+      <c r="F152" s="3">
+        <v>335.1</v>
+      </c>
+      <c r="G152">
+        <v>169.33</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <v>151</v>
+      </c>
+      <c r="B153">
+        <v>3.5990000000000001E-2</v>
+      </c>
+      <c r="C153">
+        <v>0.70698499999999997</v>
+      </c>
+      <c r="D153">
+        <v>16</v>
+      </c>
+      <c r="E153" s="3">
+        <v>136.30000000000001</v>
+      </c>
+      <c r="F153" s="3">
+        <v>254.4</v>
+      </c>
+      <c r="G153">
+        <v>189.68</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <v>152</v>
+      </c>
+      <c r="B154">
+        <v>7.6E-3</v>
+      </c>
+      <c r="C154">
+        <v>0.70693099999999998</v>
+      </c>
+      <c r="D154">
+        <v>16</v>
+      </c>
+      <c r="E154" s="3">
+        <v>110.1</v>
+      </c>
+      <c r="F154" s="3">
+        <v>199.8</v>
+      </c>
+      <c r="G154">
+        <v>196.89</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <v>153</v>
+      </c>
+      <c r="B155">
+        <v>1.0300000000000001E-3</v>
+      </c>
+      <c r="C155">
+        <v>0.706874</v>
+      </c>
+      <c r="D155">
+        <v>16</v>
+      </c>
+      <c r="E155" s="3">
+        <v>91.1</v>
+      </c>
+      <c r="F155" s="3">
+        <v>159.9</v>
+      </c>
+      <c r="G155">
+        <v>203.97</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <v>154</v>
+      </c>
+      <c r="B156">
+        <v>9.0000000000000006E-5</v>
+      </c>
+      <c r="C156">
+        <v>0.70685399999999998</v>
+      </c>
+      <c r="D156">
+        <v>16</v>
+      </c>
+      <c r="E156" s="3">
+        <v>75.2</v>
+      </c>
+      <c r="F156" s="3">
+        <v>126.9</v>
+      </c>
+      <c r="G156">
+        <v>218.41</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <v>155</v>
+      </c>
+      <c r="B157">
+        <v>0</v>
+      </c>
+      <c r="C157">
+        <v>0.706847</v>
+      </c>
+      <c r="D157">
+        <v>16</v>
+      </c>
+      <c r="E157" s="3">
+        <v>61.4</v>
+      </c>
+      <c r="F157" s="3">
+        <v>98.9</v>
+      </c>
+      <c r="G157">
+        <v>225.22</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A158">
+        <v>156</v>
+      </c>
+      <c r="B158">
+        <v>0</v>
+      </c>
+      <c r="C158">
+        <v>0.70686499999999997</v>
+      </c>
+      <c r="D158">
+        <v>15.9999</v>
+      </c>
+      <c r="E158" s="3">
+        <v>49.6</v>
+      </c>
+      <c r="F158" s="3">
+        <v>75.7</v>
+      </c>
+      <c r="G158">
+        <v>234.2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A159">
+        <v>157</v>
+      </c>
+      <c r="B159">
+        <v>0</v>
+      </c>
+      <c r="C159">
+        <v>0.70688399999999996</v>
+      </c>
+      <c r="D159">
+        <v>15.708399999999999</v>
+      </c>
+      <c r="E159" s="3">
+        <v>39.6</v>
+      </c>
+      <c r="F159" s="3">
+        <v>57.2</v>
+      </c>
+      <c r="G159">
+        <v>240.74</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A160">
+        <v>158</v>
+      </c>
+      <c r="B160">
+        <v>0</v>
+      </c>
+      <c r="C160">
+        <v>0.70688600000000001</v>
+      </c>
+      <c r="D160">
+        <v>15.4001</v>
+      </c>
+      <c r="E160" s="3">
+        <v>31.3</v>
+      </c>
+      <c r="F160" s="3">
+        <v>42.6</v>
+      </c>
+      <c r="G160">
+        <v>191.18</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A161">
+        <v>159</v>
+      </c>
+      <c r="B161">
+        <v>0</v>
+      </c>
+      <c r="C161">
+        <v>0.706874</v>
+      </c>
+      <c r="D161">
+        <v>15.400600000000001</v>
+      </c>
+      <c r="E161" s="3">
+        <v>24.4</v>
+      </c>
+      <c r="F161" s="3">
+        <v>31.4</v>
+      </c>
+      <c r="G161">
+        <v>197.47</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A162">
+        <v>160</v>
+      </c>
+      <c r="B162">
+        <v>0</v>
+      </c>
+      <c r="C162">
+        <v>0.70685500000000001</v>
+      </c>
+      <c r="D162">
+        <v>15.4237</v>
+      </c>
+      <c r="E162" s="3">
+        <v>18.7</v>
+      </c>
+      <c r="F162" s="3">
+        <v>22.9</v>
+      </c>
+      <c r="G162">
+        <v>207.62</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A163">
+        <v>161</v>
+      </c>
+      <c r="B163">
+        <v>0</v>
+      </c>
+      <c r="C163">
+        <v>0.70685100000000001</v>
+      </c>
+      <c r="D163">
+        <v>15.839499999999999</v>
+      </c>
+      <c r="E163" s="3">
+        <v>14.1</v>
+      </c>
+      <c r="F163" s="3">
+        <v>16.5</v>
+      </c>
+      <c r="G163">
+        <v>213.65</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A164">
+        <v>162</v>
+      </c>
+      <c r="B164">
+        <v>0</v>
+      </c>
+      <c r="C164">
+        <v>0.70685600000000004</v>
+      </c>
+      <c r="D164">
+        <v>16.155999999999999</v>
+      </c>
+      <c r="E164" s="3">
+        <v>10.3</v>
+      </c>
+      <c r="F164" s="3">
+        <v>11.6</v>
+      </c>
+      <c r="G164">
+        <v>186.88</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A165">
+        <v>163</v>
+      </c>
+      <c r="B165">
+        <v>0</v>
+      </c>
+      <c r="C165">
+        <v>0.70688099999999998</v>
+      </c>
+      <c r="D165">
+        <v>16.146899999999999</v>
+      </c>
+      <c r="E165" s="3">
+        <v>7.4</v>
+      </c>
+      <c r="F165" s="3">
+        <v>8.1</v>
+      </c>
+      <c r="G165">
+        <v>184.31</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A166">
+        <v>164</v>
+      </c>
+      <c r="B166">
+        <v>0</v>
+      </c>
+      <c r="C166">
+        <v>0.70701800000000004</v>
+      </c>
+      <c r="D166">
+        <v>16.141500000000001</v>
+      </c>
+      <c r="E166" s="3">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="F166" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="G166">
+        <v>187.63</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A167">
+        <v>165</v>
+      </c>
+      <c r="B167">
+        <v>0</v>
+      </c>
+      <c r="C167">
+        <v>0.70711999999999997</v>
+      </c>
+      <c r="D167">
+        <v>16.9574</v>
+      </c>
+      <c r="E167" s="3">
+        <v>3.4</v>
+      </c>
+      <c r="F167" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="G167">
+        <v>184.15</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A168">
+        <v>166</v>
+      </c>
+      <c r="B168">
+        <v>0</v>
+      </c>
+      <c r="C168">
+        <v>0.70710600000000001</v>
+      </c>
+      <c r="D168">
+        <v>16.6813</v>
+      </c>
+      <c r="E168" s="3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F168" s="3">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G168">
+        <v>138.87</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A169">
+        <v>167</v>
+      </c>
+      <c r="B169">
+        <v>0</v>
+      </c>
+      <c r="C169">
+        <v>0.70708400000000005</v>
+      </c>
+      <c r="D169">
+        <v>20.185300000000002</v>
+      </c>
+      <c r="E169" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="F169" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="G169">
+        <v>125.49</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A170">
+        <v>168</v>
+      </c>
+      <c r="B170">
+        <v>0</v>
+      </c>
+      <c r="C170">
+        <v>0.70709200000000005</v>
+      </c>
+      <c r="D170">
+        <v>18.9971</v>
+      </c>
+      <c r="E170" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="F170" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="G170">
+        <v>121.97</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A171">
+        <v>169</v>
+      </c>
+      <c r="B171">
+        <v>0</v>
+      </c>
+      <c r="C171">
+        <v>0.70714600000000005</v>
+      </c>
+      <c r="D171">
+        <v>17.249300000000002</v>
+      </c>
+      <c r="E171" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F171" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G171">
+        <v>126.99</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A172">
+        <v>170</v>
+      </c>
+      <c r="B172">
+        <v>0</v>
+      </c>
+      <c r="C172">
+        <v>0.70724100000000001</v>
+      </c>
+      <c r="D172">
+        <v>16.4589</v>
+      </c>
+      <c r="E172" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="F172" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="G172">
+        <v>70.400000000000006</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A173">
+        <v>171</v>
+      </c>
+      <c r="B173">
+        <v>0</v>
+      </c>
+      <c r="C173">
+        <v>0.70728199999999997</v>
+      </c>
+      <c r="D173">
+        <v>17.091699999999999</v>
+      </c>
+      <c r="E173" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F173" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G173">
+        <v>75.19</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A174">
+        <v>172</v>
+      </c>
+      <c r="B174">
+        <v>0</v>
+      </c>
+      <c r="C174">
+        <v>0.70729200000000003</v>
+      </c>
+      <c r="D174">
+        <v>17.7408</v>
+      </c>
+      <c r="E174" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F174" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G174">
+        <v>12.36</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A175">
+        <v>173</v>
+      </c>
+      <c r="B175">
+        <v>0</v>
+      </c>
+      <c r="C175">
+        <v>0.70729500000000001</v>
+      </c>
+      <c r="D175">
+        <v>17.935199999999998</v>
+      </c>
+      <c r="E175" s="3">
+        <v>0</v>
+      </c>
+      <c r="F175" s="3">
+        <v>0</v>
+      </c>
+      <c r="G175">
+        <v>16.91</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A176">
+        <v>174</v>
+      </c>
+      <c r="B176">
+        <v>0</v>
+      </c>
+      <c r="C176">
+        <v>0.707291</v>
+      </c>
+      <c r="D176">
+        <v>17.9011</v>
+      </c>
+      <c r="E176" s="3">
+        <v>0</v>
+      </c>
+      <c r="F176" s="3">
+        <v>0</v>
+      </c>
+      <c r="G176">
+        <v>21.34</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A177">
+        <v>175</v>
+      </c>
+      <c r="B177">
+        <v>0</v>
+      </c>
+      <c r="C177">
+        <v>0.70728999999999997</v>
+      </c>
+      <c r="D177">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="E177" s="3">
+        <v>0</v>
+      </c>
+      <c r="F177" s="3">
+        <v>0</v>
+      </c>
+      <c r="G177">
+        <v>25.66</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A178">
+        <v>176</v>
+      </c>
+      <c r="B178">
+        <v>0</v>
+      </c>
+      <c r="C178">
+        <v>0.707291</v>
+      </c>
+      <c r="D178">
+        <v>17.9009</v>
+      </c>
+      <c r="E178" s="3">
+        <v>0</v>
+      </c>
+      <c r="F178" s="3">
+        <v>0</v>
+      </c>
+      <c r="G178">
+        <v>-36.14</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A179">
+        <v>177</v>
+      </c>
+      <c r="B179">
+        <v>0</v>
+      </c>
+      <c r="C179">
+        <v>0.70729900000000001</v>
+      </c>
+      <c r="D179">
+        <v>18.082599999999999</v>
+      </c>
+      <c r="E179" s="3">
+        <v>0</v>
+      </c>
+      <c r="F179" s="3">
+        <v>0</v>
+      </c>
+      <c r="G179">
+        <v>-32.049999999999997</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A180">
+        <v>178</v>
+      </c>
+      <c r="B180">
+        <v>0</v>
+      </c>
+      <c r="C180">
+        <v>0.70730599999999999</v>
+      </c>
+      <c r="D180">
+        <v>22.700700000000001</v>
+      </c>
+      <c r="E180" s="3">
+        <v>0</v>
+      </c>
+      <c r="F180" s="3">
+        <v>0</v>
+      </c>
+      <c r="G180">
+        <v>-28.08</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A181">
+        <v>179</v>
+      </c>
+      <c r="B181">
+        <v>0</v>
+      </c>
+      <c r="C181">
+        <v>0.70729200000000003</v>
+      </c>
+      <c r="D181">
+        <v>23.105699999999999</v>
+      </c>
+      <c r="E181" s="3">
+        <v>0</v>
+      </c>
+      <c r="F181" s="3">
+        <v>0</v>
+      </c>
+      <c r="G181">
+        <v>-24.22</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A182">
+        <v>180</v>
+      </c>
+      <c r="B182">
+        <v>0</v>
+      </c>
+      <c r="C182">
+        <v>0.70724799999999999</v>
+      </c>
+      <c r="D182">
+        <v>22.5517</v>
+      </c>
+      <c r="E182" s="3">
+        <v>0</v>
+      </c>
+      <c r="F182" s="3">
+        <v>0</v>
+      </c>
+      <c r="G182">
+        <v>-8.9700000000000006</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A183">
+        <v>181</v>
+      </c>
+      <c r="B183">
+        <v>0</v>
+      </c>
+      <c r="C183">
+        <v>0.70719299999999996</v>
+      </c>
+      <c r="D183">
+        <v>21.113900000000001</v>
+      </c>
+      <c r="E183" s="3">
+        <v>0</v>
+      </c>
+      <c r="F183" s="3">
+        <v>0</v>
+      </c>
+      <c r="G183">
+        <v>-5.33</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A184">
+        <v>182</v>
+      </c>
+      <c r="B184">
+        <v>2.7E-4</v>
+      </c>
+      <c r="C184">
+        <v>0.70714699999999997</v>
+      </c>
+      <c r="D184">
+        <v>18.7136</v>
+      </c>
+      <c r="E184" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="F184" s="3">
+        <v>2.7</v>
+      </c>
+      <c r="G184">
+        <v>-1.81</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A185">
+        <v>183</v>
+      </c>
+      <c r="B185">
+        <v>0.10798000000000001</v>
+      </c>
+      <c r="C185">
+        <v>0.70711599999999997</v>
+      </c>
+      <c r="D185">
+        <v>17.460100000000001</v>
+      </c>
+      <c r="E185" s="3">
+        <v>539.9</v>
+      </c>
+      <c r="F185" s="3">
+        <v>1079.8</v>
+      </c>
+      <c r="G185">
+        <v>2.11</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A186">
+        <v>184</v>
+      </c>
+      <c r="B186">
+        <v>0.79788999999999999</v>
+      </c>
+      <c r="C186">
+        <v>0.70713400000000004</v>
+      </c>
+      <c r="D186">
+        <v>17.160900000000002</v>
+      </c>
+      <c r="E186" s="3">
+        <v>3989.4</v>
+      </c>
+      <c r="F186" s="3">
+        <v>7978.9</v>
+      </c>
+      <c r="G186">
+        <v>5.42</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A187">
+        <v>185</v>
+      </c>
+      <c r="B187">
+        <v>0.10798000000000001</v>
+      </c>
+      <c r="C187">
+        <v>0.70718999999999999</v>
+      </c>
+      <c r="D187">
+        <v>15.773400000000001</v>
+      </c>
+      <c r="E187" s="3">
+        <v>539.9</v>
+      </c>
+      <c r="F187" s="3">
+        <v>1079.8</v>
+      </c>
+      <c r="G187">
+        <v>8.6199999999999992</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A188">
+        <v>186</v>
+      </c>
+      <c r="B188">
+        <v>2.7E-4</v>
+      </c>
+      <c r="C188">
+        <v>0.70723000000000003</v>
+      </c>
+      <c r="D188">
+        <v>14.437900000000001</v>
+      </c>
+      <c r="E188" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="F188" s="3">
+        <v>2.7</v>
+      </c>
+      <c r="G188">
+        <v>11.71</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A189">
+        <v>187</v>
+      </c>
+      <c r="B189">
+        <v>0</v>
+      </c>
+      <c r="C189">
+        <v>7.2609999999999994E-2</v>
+      </c>
+      <c r="D189">
+        <v>14.3132</v>
+      </c>
+      <c r="E189" s="3">
+        <v>0</v>
+      </c>
+      <c r="F189" s="3">
+        <v>0</v>
+      </c>
+      <c r="G189">
+        <v>-18.8</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A190">
+        <v>188</v>
+      </c>
+      <c r="B190">
+        <v>0</v>
+      </c>
+      <c r="C190">
+        <v>0.70729799999999998</v>
+      </c>
+      <c r="D190">
+        <v>14.6137</v>
+      </c>
+      <c r="E190" s="3">
+        <v>0</v>
+      </c>
+      <c r="F190" s="3">
+        <v>0</v>
+      </c>
+      <c r="G190">
+        <v>-15.92</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A191">
+        <v>189</v>
+      </c>
+      <c r="B191">
+        <v>0</v>
+      </c>
+      <c r="C191">
+        <v>0.707345</v>
+      </c>
+      <c r="D191">
+        <v>15.309799999999999</v>
+      </c>
+      <c r="E191" s="3">
+        <v>0</v>
+      </c>
+      <c r="F191" s="3">
+        <v>0</v>
+      </c>
+      <c r="G191">
+        <v>-13.14</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A192">
+        <v>190</v>
+      </c>
+      <c r="B192">
+        <v>0</v>
+      </c>
+      <c r="C192">
+        <v>0.70739799999999997</v>
+      </c>
+      <c r="D192">
+        <v>15.1189</v>
+      </c>
+      <c r="E192" s="3">
+        <v>0</v>
+      </c>
+      <c r="F192" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G192">
+        <v>-63.46</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A193">
+        <v>191</v>
+      </c>
+      <c r="B193">
+        <v>0</v>
+      </c>
+      <c r="C193">
+        <v>0.70744300000000004</v>
+      </c>
+      <c r="D193">
+        <v>14.853300000000001</v>
+      </c>
+      <c r="E193" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F193" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G193">
+        <v>-60.89</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A194">
+        <v>192</v>
+      </c>
+      <c r="B194">
+        <v>0</v>
+      </c>
+      <c r="C194">
+        <v>0.70748200000000006</v>
+      </c>
+      <c r="D194">
+        <v>14.607200000000001</v>
+      </c>
+      <c r="E194" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F194" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G194">
+        <v>-58.42</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A195">
+        <v>193</v>
+      </c>
+      <c r="B195">
+        <v>0</v>
+      </c>
+      <c r="C195">
+        <v>0.70752800000000005</v>
+      </c>
+      <c r="D195">
+        <v>14.4269</v>
+      </c>
+      <c r="E195" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F195" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="G195">
+        <v>-56.05</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A196">
+        <v>194</v>
+      </c>
+      <c r="B196">
+        <v>0</v>
+      </c>
+      <c r="C196">
+        <v>0.70758299999999996</v>
+      </c>
+      <c r="D196">
+        <v>14.3169</v>
+      </c>
+      <c r="E196" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F196" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="G196">
+        <v>-121.28</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A197">
+        <v>195</v>
+      </c>
+      <c r="B197">
+        <v>0</v>
+      </c>
+      <c r="C197">
+        <v>0.70765199999999995</v>
+      </c>
+      <c r="D197">
+        <v>14.729200000000001</v>
+      </c>
+      <c r="E197" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="F197" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="G197">
+        <v>-119.11</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A198">
+        <v>196</v>
+      </c>
+      <c r="B198">
+        <v>1.2999999999999999E-4</v>
+      </c>
+      <c r="C198">
+        <v>0.70771700000000004</v>
+      </c>
+      <c r="D198">
+        <v>24.191099999999999</v>
+      </c>
+      <c r="E198" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="F198" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="G198">
+        <v>-117.03</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A199">
+        <v>197</v>
+      </c>
+      <c r="B199">
+        <v>4.4299999999999999E-3</v>
+      </c>
+      <c r="C199">
+        <v>0.70774800000000004</v>
+      </c>
+      <c r="D199">
+        <v>24.061900000000001</v>
+      </c>
+      <c r="E199" s="3">
+        <v>11.8</v>
+      </c>
+      <c r="F199" s="3">
+        <v>12.4</v>
+      </c>
+      <c r="G199">
+        <v>-170.56</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A200">
+        <v>198</v>
+      </c>
+      <c r="B200">
+        <v>5.3990000000000003E-2</v>
+      </c>
+      <c r="C200">
+        <v>0.70775699999999997</v>
+      </c>
+      <c r="D200">
+        <v>23.598299999999998</v>
+      </c>
+      <c r="E200" s="3">
+        <v>135.9</v>
+      </c>
+      <c r="F200" s="3">
+        <v>136.9</v>
+      </c>
+      <c r="G200">
+        <v>-168.68</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A201">
+        <v>199</v>
+      </c>
+      <c r="B201">
+        <v>0.24196999999999999</v>
+      </c>
+      <c r="C201">
+        <v>0.70775900000000003</v>
+      </c>
+      <c r="D201">
+        <v>22.360099999999999</v>
+      </c>
+      <c r="E201" s="3">
+        <v>606.20000000000005</v>
+      </c>
+      <c r="F201" s="3">
+        <v>607.5</v>
+      </c>
+      <c r="G201">
+        <v>-209.39</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A202">
+        <v>200</v>
+      </c>
+      <c r="B202">
+        <v>0.39894000000000002</v>
+      </c>
+      <c r="C202">
+        <v>0.70774499999999996</v>
+      </c>
+      <c r="D202">
+        <v>19.722799999999999</v>
+      </c>
+      <c r="E202" s="3">
+        <v>999.1</v>
+      </c>
+      <c r="F202" s="3">
+        <v>1000.8</v>
+      </c>
+      <c r="G202">
+        <v>-103.71</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A203">
+        <v>201</v>
+      </c>
+      <c r="B203">
+        <v>0.24196999999999999</v>
+      </c>
+      <c r="C203">
+        <v>0.70773399999999997</v>
+      </c>
+      <c r="D203">
+        <v>16.1006</v>
+      </c>
+      <c r="E203" s="3">
+        <v>607.20000000000005</v>
+      </c>
+      <c r="F203" s="3">
+        <v>609.5</v>
+      </c>
+      <c r="G203">
+        <v>-102.11</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A204">
+        <v>202</v>
+      </c>
+      <c r="B204">
+        <v>5.3990000000000003E-2</v>
+      </c>
+      <c r="C204">
+        <v>0.70774899999999996</v>
+      </c>
+      <c r="D204">
+        <v>13.555899999999999</v>
+      </c>
+      <c r="E204" s="3">
+        <v>137.9</v>
+      </c>
+      <c r="F204" s="3">
+        <v>140.9</v>
+      </c>
+      <c r="G204">
+        <v>-100.61</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A205">
+        <v>203</v>
+      </c>
+      <c r="B205">
+        <v>4.4299999999999999E-3</v>
+      </c>
+      <c r="C205">
+        <v>0.70782100000000003</v>
+      </c>
+      <c r="D205">
+        <v>15.7744</v>
+      </c>
+      <c r="E205" s="3">
+        <v>14.8</v>
+      </c>
+      <c r="F205" s="3">
+        <v>18.5</v>
+      </c>
+      <c r="G205">
+        <v>-99.2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A206">
+        <v>204</v>
+      </c>
+      <c r="B206">
+        <v>1.2999999999999999E-4</v>
+      </c>
+      <c r="C206">
+        <v>0.70799000000000001</v>
+      </c>
+      <c r="D206">
+        <v>17.9649</v>
+      </c>
+      <c r="E206" s="3">
+        <v>5</v>
+      </c>
+      <c r="F206" s="3">
+        <v>9.6</v>
+      </c>
+      <c r="G206">
+        <v>-37.549999999999997</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A207">
+        <v>205</v>
+      </c>
+      <c r="B207">
+        <v>0</v>
+      </c>
+      <c r="C207">
+        <v>0.70804599999999995</v>
+      </c>
+      <c r="D207">
+        <v>18.065300000000001</v>
+      </c>
+      <c r="E207" s="3">
+        <v>5.6</v>
+      </c>
+      <c r="F207" s="3">
+        <v>11.2</v>
+      </c>
+      <c r="G207">
+        <v>-36.22</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A208">
+        <v>206</v>
+      </c>
+      <c r="B208">
+        <v>0</v>
+      </c>
+      <c r="C208">
+        <v>0.70804299999999998</v>
+      </c>
+      <c r="D208">
+        <v>18.139299999999999</v>
+      </c>
+      <c r="E208" s="3">
+        <v>6.7</v>
+      </c>
+      <c r="F208" s="3">
+        <v>13.3</v>
+      </c>
+      <c r="G208">
+        <v>-35.18</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A209">
+        <v>207</v>
+      </c>
+      <c r="B209">
+        <v>0</v>
+      </c>
+      <c r="C209">
+        <v>0.70804400000000001</v>
+      </c>
+      <c r="D209">
+        <v>18.191299999999998</v>
+      </c>
+      <c r="E209" s="3">
+        <v>7.8</v>
+      </c>
+      <c r="F209" s="3">
+        <v>15.6</v>
+      </c>
+      <c r="G209">
+        <v>-34.130000000000003</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A210">
+        <v>208</v>
+      </c>
+      <c r="B210">
+        <v>0</v>
+      </c>
+      <c r="C210">
+        <v>0.70804199999999995</v>
+      </c>
+      <c r="D210">
+        <v>17.891100000000002</v>
+      </c>
+      <c r="E210" s="3">
+        <v>8.9</v>
+      </c>
+      <c r="F210" s="3">
+        <v>17.8</v>
+      </c>
+      <c r="G210">
+        <v>-10.83</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A211">
+        <v>209</v>
+      </c>
+      <c r="B211">
+        <v>0</v>
+      </c>
+      <c r="C211">
+        <v>0.70803199999999999</v>
+      </c>
+      <c r="D211">
+        <v>17.537199999999999</v>
+      </c>
+      <c r="E211" s="3">
+        <v>9.9</v>
+      </c>
+      <c r="F211" s="3">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="G211">
+        <v>-9.9499999999999993</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A212">
+        <v>210</v>
+      </c>
+      <c r="B212">
+        <v>0</v>
+      </c>
+      <c r="C212">
+        <v>0.70797100000000002</v>
+      </c>
+      <c r="D212">
+        <v>17.757100000000001</v>
+      </c>
+      <c r="E212" s="3">
+        <v>10.9</v>
+      </c>
+      <c r="F212" s="3">
+        <v>21.8</v>
+      </c>
+      <c r="G212">
+        <v>-9.17</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A213">
+        <v>211</v>
+      </c>
+      <c r="B213">
+        <v>0</v>
+      </c>
+      <c r="C213">
+        <v>0.70778200000000002</v>
+      </c>
+      <c r="D213">
+        <v>18.769400000000001</v>
+      </c>
+      <c r="E213" s="3">
+        <v>11.7</v>
+      </c>
+      <c r="F213" s="3">
+        <v>23.4</v>
+      </c>
+      <c r="G213">
+        <v>-8.4600000000000009</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A214">
+        <v>212</v>
+      </c>
+      <c r="B214">
+        <v>0</v>
+      </c>
+      <c r="C214">
+        <v>0.70774899999999996</v>
+      </c>
+      <c r="D214">
+        <v>18.9209</v>
+      </c>
+      <c r="E214" s="3">
+        <v>12.3</v>
+      </c>
+      <c r="F214" s="3">
+        <v>24.6</v>
+      </c>
+      <c r="G214">
+        <v>-7.84</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A215">
+        <v>213</v>
+      </c>
+      <c r="B215">
+        <v>0</v>
+      </c>
+      <c r="C215">
+        <v>0.70773399999999997</v>
+      </c>
+      <c r="D215">
+        <v>18.9512</v>
+      </c>
+      <c r="E215" s="3">
+        <v>12.7</v>
+      </c>
+      <c r="F215" s="3">
+        <v>25.4</v>
+      </c>
+      <c r="G215">
+        <v>12.02</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A216">
+        <v>214</v>
+      </c>
+      <c r="B216">
+        <v>0</v>
+      </c>
+      <c r="C216">
+        <v>0.70771499999999998</v>
+      </c>
+      <c r="D216">
+        <v>18.9514</v>
+      </c>
+      <c r="E216" s="3">
+        <v>12.8</v>
+      </c>
+      <c r="F216" s="3">
+        <v>25.6</v>
+      </c>
+      <c r="G216">
+        <v>12.48</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A217">
+        <v>215</v>
+      </c>
+      <c r="B217">
+        <v>0</v>
+      </c>
+      <c r="C217">
+        <v>0.707704</v>
+      </c>
+      <c r="D217">
+        <v>18.811299999999999</v>
+      </c>
+      <c r="E217" s="3">
+        <v>12.7</v>
+      </c>
+      <c r="F217" s="3">
+        <v>25.4</v>
+      </c>
+      <c r="G217">
+        <v>12.85</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A218">
+        <v>216</v>
+      </c>
+      <c r="B218">
+        <v>0</v>
+      </c>
+      <c r="C218">
+        <v>0.70770500000000003</v>
+      </c>
+      <c r="D218">
+        <v>18.754300000000001</v>
+      </c>
+      <c r="E218" s="3">
+        <v>12.3</v>
+      </c>
+      <c r="F218" s="3">
+        <v>24.6</v>
+      </c>
+      <c r="G218">
+        <v>13.14</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A219">
+        <v>217</v>
+      </c>
+      <c r="B219">
+        <v>0</v>
+      </c>
+      <c r="C219">
+        <v>0.70770299999999997</v>
+      </c>
+      <c r="D219">
+        <v>18.880099999999999</v>
+      </c>
+      <c r="E219" s="3">
+        <v>11.7</v>
+      </c>
+      <c r="F219" s="3">
+        <v>23.4</v>
+      </c>
+      <c r="G219">
+        <v>26.85</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A220">
+        <v>218</v>
+      </c>
+      <c r="B220">
+        <v>0</v>
+      </c>
+      <c r="C220">
+        <v>0.70769599999999999</v>
+      </c>
+      <c r="D220">
+        <v>19.0565</v>
+      </c>
+      <c r="E220" s="3">
+        <v>10.9</v>
+      </c>
+      <c r="F220" s="3">
+        <v>21.8</v>
+      </c>
+      <c r="G220">
+        <v>26.98</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A221">
+        <v>219</v>
+      </c>
+      <c r="B221">
+        <v>0</v>
+      </c>
+      <c r="C221">
+        <v>0.70768399999999998</v>
+      </c>
+      <c r="D221">
+        <v>19.230799999999999</v>
+      </c>
+      <c r="E221" s="3">
+        <v>9.9</v>
+      </c>
+      <c r="F221" s="3">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="G221">
+        <v>27.04</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A222">
+        <v>220</v>
+      </c>
+      <c r="B222">
+        <v>0</v>
+      </c>
+      <c r="C222">
+        <v>0.70767100000000005</v>
+      </c>
+      <c r="D222">
+        <v>19.374700000000001</v>
+      </c>
+      <c r="E222" s="3">
+        <v>8.9</v>
+      </c>
+      <c r="F222" s="3">
+        <v>17.8</v>
+      </c>
+      <c r="G222">
+        <v>27.01</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A223">
+        <v>221</v>
+      </c>
+      <c r="B223">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="C223">
+        <v>0.70766600000000002</v>
+      </c>
+      <c r="D223">
+        <v>19.4817</v>
+      </c>
+      <c r="E223" s="3">
+        <v>7.8</v>
+      </c>
+      <c r="F223" s="3">
+        <v>15.6</v>
+      </c>
+      <c r="G223">
+        <v>26.91</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A224">
+        <v>222</v>
+      </c>
+      <c r="B224">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="C224">
+        <v>0.70766899999999999</v>
+      </c>
+      <c r="D224">
+        <v>19.5474</v>
+      </c>
+      <c r="E224" s="3">
+        <v>6.7</v>
+      </c>
+      <c r="F224" s="3">
+        <v>13.4</v>
+      </c>
+      <c r="G224">
+        <v>26.74</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A225">
+        <v>223</v>
+      </c>
+      <c r="B225">
+        <v>2.4000000000000001E-4</v>
+      </c>
+      <c r="C225">
+        <v>0.70765299999999998</v>
+      </c>
+      <c r="D225">
+        <v>18.045999999999999</v>
+      </c>
+      <c r="E225" s="3">
+        <v>5.7</v>
+      </c>
+      <c r="F225" s="3">
+        <v>11.5</v>
+      </c>
+      <c r="G225">
+        <v>19.489999999999998</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A226">
+        <v>224</v>
+      </c>
+      <c r="B226">
+        <v>9.5E-4</v>
+      </c>
+      <c r="C226">
+        <v>0.70762400000000003</v>
+      </c>
+      <c r="D226">
+        <v>17.900099999999998</v>
+      </c>
+      <c r="E226" s="3">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="F226" s="3">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="G226">
+        <v>19.16</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A227">
+        <v>225</v>
+      </c>
+      <c r="B227">
+        <v>3.1700000000000001E-3</v>
+      </c>
+      <c r="C227">
+        <v>0.70760599999999996</v>
+      </c>
+      <c r="D227">
+        <v>17.899799999999999</v>
+      </c>
+      <c r="E227" s="3">
+        <v>5.3</v>
+      </c>
+      <c r="F227" s="3">
+        <v>10.6</v>
+      </c>
+      <c r="G227">
+        <v>18.760000000000002</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A228">
+        <v>226</v>
+      </c>
+      <c r="B228">
+        <v>8.9599999999999992E-3</v>
+      </c>
+      <c r="C228">
+        <v>0.70759700000000003</v>
+      </c>
+      <c r="D228">
+        <v>17.898599999999998</v>
+      </c>
+      <c r="E228" s="3">
+        <v>7.4</v>
+      </c>
+      <c r="F228" s="3">
+        <v>14.9</v>
+      </c>
+      <c r="G228">
+        <v>18.29</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A229">
+        <v>227</v>
+      </c>
+      <c r="B229">
+        <v>2.1600000000000001E-2</v>
+      </c>
+      <c r="C229">
+        <v>0.70760100000000004</v>
+      </c>
+      <c r="D229">
+        <v>17.8903</v>
+      </c>
+      <c r="E229" s="3">
+        <v>13.1</v>
+      </c>
+      <c r="F229" s="3">
+        <v>26.2</v>
+      </c>
+      <c r="G229">
+        <v>17.75</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A230">
+        <v>228</v>
+      </c>
+      <c r="B230">
+        <v>4.437E-2</v>
+      </c>
+      <c r="C230">
+        <v>0.70761300000000005</v>
+      </c>
+      <c r="D230">
+        <v>17.837299999999999</v>
+      </c>
+      <c r="E230" s="3">
+        <v>23.9</v>
+      </c>
+      <c r="F230" s="3">
+        <v>47.8</v>
+      </c>
+      <c r="G230">
+        <v>-29.86</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A231">
+        <v>229</v>
+      </c>
+      <c r="B231">
+        <v>7.7670000000000003E-2</v>
+      </c>
+      <c r="C231">
+        <v>0.70763600000000004</v>
+      </c>
+      <c r="D231">
+        <v>17.627700000000001</v>
+      </c>
+      <c r="E231" s="3">
+        <v>40.1</v>
+      </c>
+      <c r="F231" s="3">
+        <v>80.3</v>
+      </c>
+      <c r="G231">
+        <v>-30.54</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A232">
+        <v>230</v>
+      </c>
+      <c r="B232">
+        <v>0.11588</v>
+      </c>
+      <c r="C232">
+        <v>0.70767800000000003</v>
+      </c>
+      <c r="D232">
+        <v>17.4056</v>
+      </c>
+      <c r="E232" s="3">
+        <v>58.9</v>
+      </c>
+      <c r="F232" s="3">
+        <v>117.8</v>
+      </c>
+      <c r="G232">
+        <v>-31.3</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A233">
+        <v>231</v>
+      </c>
+      <c r="B233">
+        <v>0.14731</v>
+      </c>
+      <c r="C233">
+        <v>0.70771300000000004</v>
+      </c>
+      <c r="D233">
+        <v>17.5076</v>
+      </c>
+      <c r="E233" s="3">
+        <v>74.3</v>
+      </c>
+      <c r="F233" s="3">
+        <v>148.69999999999999</v>
+      </c>
+      <c r="G233">
+        <v>-32.11</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A234">
+        <v>232</v>
+      </c>
+      <c r="B234">
+        <v>0.15958</v>
+      </c>
+      <c r="C234">
+        <v>0.70772500000000005</v>
+      </c>
+      <c r="D234">
+        <v>18.2927</v>
+      </c>
+      <c r="E234" s="3">
+        <v>80.3</v>
+      </c>
+      <c r="F234" s="3">
+        <v>160.5</v>
+      </c>
+      <c r="G234">
+        <v>-33</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A235">
+        <v>233</v>
+      </c>
+      <c r="B235">
+        <v>0.14731</v>
+      </c>
+      <c r="C235">
+        <v>0.70772599999999997</v>
+      </c>
+      <c r="D235">
+        <v>19.286899999999999</v>
+      </c>
+      <c r="E235" s="3">
+        <v>74</v>
+      </c>
+      <c r="F235" s="3">
+        <v>148</v>
+      </c>
+      <c r="G235">
+        <v>-119.95</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A236">
+        <v>234</v>
+      </c>
+      <c r="B236">
+        <v>0.11588</v>
+      </c>
+      <c r="C236">
+        <v>0.70772299999999999</v>
+      </c>
+      <c r="D236">
+        <v>20.577500000000001</v>
+      </c>
+      <c r="E236" s="3">
+        <v>58.2</v>
+      </c>
+      <c r="F236" s="3">
+        <v>116.3</v>
+      </c>
+      <c r="G236">
+        <v>-120.97</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A237">
+        <v>235</v>
+      </c>
+      <c r="B237">
+        <v>7.7670000000000003E-2</v>
+      </c>
+      <c r="C237">
+        <v>0.70772000000000002</v>
+      </c>
+      <c r="D237">
+        <v>23.026</v>
+      </c>
+      <c r="E237" s="3">
+        <v>39</v>
+      </c>
+      <c r="F237" s="3">
+        <v>78</v>
+      </c>
+      <c r="G237">
+        <v>-122.05</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A238">
+        <v>236</v>
+      </c>
+      <c r="B238">
+        <v>4.437E-2</v>
+      </c>
+      <c r="C238">
+        <v>0.70772599999999997</v>
+      </c>
+      <c r="D238">
+        <v>23.915099999999999</v>
+      </c>
+      <c r="E238" s="3">
+        <v>22.3</v>
+      </c>
+      <c r="F238" s="3">
+        <v>44.6</v>
+      </c>
+      <c r="G238">
+        <v>-123.2</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A239">
+        <v>237</v>
+      </c>
+      <c r="B239">
+        <v>2.1600000000000001E-2</v>
+      </c>
+      <c r="C239">
+        <v>0.70774599999999999</v>
+      </c>
+      <c r="D239">
+        <v>23.101400000000002</v>
+      </c>
+      <c r="E239" s="3">
+        <v>10.9</v>
+      </c>
+      <c r="F239" s="3">
+        <v>21.7</v>
+      </c>
+      <c r="G239">
+        <v>-178.57</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A240">
+        <v>238</v>
+      </c>
+      <c r="B240">
+        <v>8.9599999999999992E-3</v>
+      </c>
+      <c r="C240">
+        <v>0.70777800000000002</v>
+      </c>
+      <c r="D240">
+        <v>22.408999999999999</v>
+      </c>
+      <c r="E240" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="F240" s="3">
+        <v>9</v>
+      </c>
+      <c r="G240">
+        <v>-179.84</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A241">
+        <v>239</v>
+      </c>
+      <c r="B241">
+        <v>3.1700000000000001E-3</v>
+      </c>
+      <c r="C241">
+        <v>0.70783300000000005</v>
+      </c>
+      <c r="D241">
+        <v>22.892900000000001</v>
+      </c>
+      <c r="E241" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="F241" s="3">
+        <v>3.2</v>
+      </c>
+      <c r="G241">
+        <v>-181.17</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A242">
+        <v>240</v>
+      </c>
+      <c r="B242">
+        <v>9.5E-4</v>
+      </c>
+      <c r="C242">
+        <v>0.70786899999999997</v>
+      </c>
+      <c r="D242">
+        <v>23.2407</v>
+      </c>
+      <c r="E242" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F242" s="3">
+        <v>1</v>
+      </c>
+      <c r="G242">
+        <v>-232.22</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A243">
+        <v>241</v>
+      </c>
+      <c r="B243">
+        <v>2.4000000000000001E-4</v>
+      </c>
+      <c r="C243">
+        <v>0.70787800000000001</v>
+      </c>
+      <c r="D243">
+        <v>22.6934</v>
+      </c>
+      <c r="E243" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F243" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="G243">
+        <v>-233.67</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A244">
+        <v>242</v>
+      </c>
+      <c r="B244">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="C244">
+        <v>0.70789100000000005</v>
+      </c>
+      <c r="D244">
+        <v>21.701599999999999</v>
+      </c>
+      <c r="E244" s="3">
+        <v>0</v>
+      </c>
+      <c r="F244" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G244">
+        <v>-235.18</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A245">
+        <v>243</v>
+      </c>
+      <c r="B245">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="C245">
+        <v>0.70794299999999999</v>
+      </c>
+      <c r="D245">
+        <v>22.839500000000001</v>
+      </c>
+      <c r="E245" s="3">
+        <v>0</v>
+      </c>
+      <c r="F245" s="3">
+        <v>0</v>
+      </c>
+      <c r="G245">
+        <v>-291.42</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A246">
+        <v>244</v>
+      </c>
+      <c r="B246">
+        <v>0</v>
+      </c>
+      <c r="C246">
+        <v>0.70805399999999996</v>
+      </c>
+      <c r="D246">
+        <v>25.9221</v>
+      </c>
+      <c r="E246" s="3">
+        <v>0</v>
+      </c>
+      <c r="F246" s="3">
+        <v>0</v>
+      </c>
+      <c r="G246">
+        <v>-293.04000000000002</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A247">
+        <v>245</v>
+      </c>
+      <c r="B247">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="C247">
+        <v>0.70813099999999995</v>
+      </c>
+      <c r="D247">
+        <v>26.322900000000001</v>
+      </c>
+      <c r="E247" s="3">
+        <v>0</v>
+      </c>
+      <c r="F247" s="3">
+        <v>0</v>
+      </c>
+      <c r="G247">
+        <v>-342.72</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A248">
+        <v>246</v>
+      </c>
+      <c r="B248">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="C248">
+        <v>0.708152</v>
+      </c>
+      <c r="D248">
+        <v>26.327000000000002</v>
+      </c>
+      <c r="E248" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F248" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G248">
+        <v>-344.45</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A249">
+        <v>247</v>
+      </c>
+      <c r="B249">
+        <v>2.4000000000000001E-4</v>
+      </c>
+      <c r="C249">
+        <v>0.70812299999999995</v>
+      </c>
+      <c r="D249">
+        <v>25.720500000000001</v>
+      </c>
+      <c r="E249" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F249" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G249">
+        <v>-346.24</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A250">
+        <v>248</v>
+      </c>
+      <c r="B250">
+        <v>9.5E-4</v>
+      </c>
+      <c r="C250">
+        <v>0.707986</v>
+      </c>
+      <c r="D250">
+        <v>19.695699999999999</v>
+      </c>
+      <c r="E250" s="3">
+        <v>1</v>
+      </c>
+      <c r="F250" s="3">
+        <v>1</v>
+      </c>
+      <c r="G250">
+        <v>-393.58</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A251">
+        <v>249</v>
+      </c>
+      <c r="B251">
+        <v>3.1700000000000001E-3</v>
+      </c>
+      <c r="C251">
+        <v>0.70779400000000003</v>
+      </c>
+      <c r="D251">
+        <v>16.639299999999999</v>
+      </c>
+      <c r="E251" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="F251" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="G251">
+        <v>-395.48</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A252">
+        <v>250</v>
+      </c>
+      <c r="B252">
+        <v>0.10798000000000001</v>
+      </c>
+      <c r="C252">
+        <v>0.70764000000000005</v>
+      </c>
+      <c r="D252">
+        <v>17.116499999999998</v>
+      </c>
+      <c r="E252" s="3">
+        <v>624.5</v>
+      </c>
+      <c r="F252" s="3">
+        <v>624.5</v>
+      </c>
+      <c r="G252">
+        <v>-425.42</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A253">
+        <v>251</v>
+      </c>
+      <c r="B253">
+        <v>0.79788999999999999</v>
+      </c>
+      <c r="C253">
+        <v>0.70751299999999995</v>
+      </c>
+      <c r="D253">
+        <v>17.7684</v>
+      </c>
+      <c r="E253" s="3">
+        <v>4569.5</v>
+      </c>
+      <c r="F253" s="3">
+        <v>4569.5</v>
+      </c>
+      <c r="G253">
+        <v>-212.41</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A254">
+        <v>252</v>
+      </c>
+      <c r="B254">
+        <v>0.10798000000000001</v>
+      </c>
+      <c r="C254">
+        <v>0.70740599999999998</v>
+      </c>
+      <c r="D254">
+        <v>18.385200000000001</v>
+      </c>
+      <c r="E254" s="3">
+        <v>659.9</v>
+      </c>
+      <c r="F254" s="3">
+        <v>659.9</v>
+      </c>
+      <c r="G254">
+        <v>-214.46</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A255">
+        <v>253</v>
+      </c>
+      <c r="B255">
+        <v>7.7670000000000003E-2</v>
+      </c>
+      <c r="C255">
+        <v>0.70732700000000004</v>
+      </c>
+      <c r="D255">
+        <v>18.941500000000001</v>
+      </c>
+      <c r="E255" s="3">
+        <v>79.2</v>
+      </c>
+      <c r="F255" s="3">
+        <v>79.2</v>
+      </c>
+      <c r="G255">
+        <v>-216.55</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A256">
+        <v>254</v>
+      </c>
+      <c r="B256">
+        <v>0.11588</v>
+      </c>
+      <c r="C256">
+        <v>0.70730099999999996</v>
+      </c>
+      <c r="D256">
+        <v>19.4297</v>
+      </c>
+      <c r="E256" s="3">
+        <v>115.9</v>
+      </c>
+      <c r="F256" s="3">
+        <v>115.9</v>
+      </c>
+      <c r="G256">
+        <v>-66.2</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A257">
+        <v>255</v>
+      </c>
+      <c r="B257">
+        <v>0.14731</v>
+      </c>
+      <c r="C257">
+        <v>0.70730499999999996</v>
+      </c>
+      <c r="D257">
+        <v>19.852399999999999</v>
+      </c>
+      <c r="E257" s="3">
+        <v>147.30000000000001</v>
+      </c>
+      <c r="F257" s="3">
+        <v>147.30000000000001</v>
+      </c>
+      <c r="G257">
+        <v>-68.38</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A258">
+        <v>256</v>
+      </c>
+      <c r="B258">
+        <v>0.15958</v>
+      </c>
+      <c r="C258">
+        <v>0.70728800000000003</v>
+      </c>
+      <c r="D258">
+        <v>20.216999999999999</v>
+      </c>
+      <c r="E258" s="3">
+        <v>159.6</v>
+      </c>
+      <c r="F258" s="3">
+        <v>159.6</v>
+      </c>
+      <c r="G258">
+        <v>-70.62</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A259">
+        <v>257</v>
+      </c>
+      <c r="B259">
+        <v>0.14731</v>
+      </c>
+      <c r="C259">
+        <v>0.70720799999999995</v>
+      </c>
+      <c r="D259">
+        <v>19.6539</v>
+      </c>
+      <c r="E259" s="3">
+        <v>147.30000000000001</v>
+      </c>
+      <c r="F259" s="3">
+        <v>147.30000000000001</v>
+      </c>
+      <c r="G259">
+        <v>-72.900000000000006</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A260">
+        <v>258</v>
+      </c>
+      <c r="B260">
+        <v>0.11588</v>
+      </c>
+      <c r="C260">
+        <v>0.70712299999999995</v>
+      </c>
+      <c r="D260">
+        <v>11.0246</v>
+      </c>
+      <c r="E260" s="3">
+        <v>115.9</v>
+      </c>
+      <c r="F260" s="3">
+        <v>115.9</v>
+      </c>
+      <c r="G260">
+        <v>-75.22</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A261">
+        <v>259</v>
+      </c>
+      <c r="B261">
+        <v>7.7670000000000003E-2</v>
+      </c>
+      <c r="C261">
+        <v>0.70709599999999995</v>
+      </c>
+      <c r="D261">
+        <v>11.0001</v>
+      </c>
+      <c r="E261" s="3">
+        <v>77.7</v>
+      </c>
+      <c r="F261" s="3">
+        <v>77.7</v>
+      </c>
+      <c r="G261">
+        <v>-77.59</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A262">
+        <v>260</v>
+      </c>
+      <c r="B262">
+        <v>4.437E-2</v>
+      </c>
+      <c r="C262">
+        <v>0.70712799999999998</v>
+      </c>
+      <c r="D262">
+        <v>11.0006</v>
+      </c>
+      <c r="E262" s="3">
+        <v>44.4</v>
+      </c>
+      <c r="F262" s="3">
+        <v>44.4</v>
+      </c>
+      <c r="G262">
+        <v>-80.010000000000005</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A263">
+        <v>261</v>
+      </c>
+      <c r="B263">
+        <v>2.1600000000000001E-2</v>
+      </c>
+      <c r="C263">
+        <v>0.70719600000000005</v>
+      </c>
+      <c r="D263">
+        <v>11.004300000000001</v>
+      </c>
+      <c r="G263">
+        <v>178.04</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A264">
+        <v>262</v>
+      </c>
+      <c r="B264">
+        <v>8.9599999999999992E-3</v>
+      </c>
+      <c r="C264">
+        <v>0.70719699999999996</v>
+      </c>
+      <c r="D264">
+        <v>11.0298</v>
+      </c>
+      <c r="G264">
+        <v>175.55</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A265">
+        <v>263</v>
+      </c>
+      <c r="B265">
+        <v>3.1700000000000001E-3</v>
+      </c>
+      <c r="C265">
+        <v>0.70709599999999995</v>
+      </c>
+      <c r="D265">
+        <v>11.197699999999999</v>
+      </c>
+      <c r="G265">
+        <v>173.01</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A266">
+        <v>264</v>
+      </c>
+      <c r="B266">
+        <v>9.5E-4</v>
+      </c>
+      <c r="C266">
+        <v>0.707067</v>
+      </c>
+      <c r="D266">
+        <v>12.0092</v>
+      </c>
+      <c r="G266">
+        <v>170.44</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A267">
+        <v>265</v>
+      </c>
+      <c r="B267">
+        <v>2.4000000000000001E-4</v>
+      </c>
+      <c r="C267">
+        <v>0.70711900000000005</v>
+      </c>
+      <c r="D267">
+        <v>13.403499999999999</v>
+      </c>
+      <c r="G267">
+        <v>167.82</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A268">
+        <v>266</v>
+      </c>
+      <c r="B268">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="C268">
+        <v>0.70718400000000003</v>
+      </c>
+      <c r="D268">
+        <v>13.9802</v>
+      </c>
+      <c r="G268">
+        <v>260.67</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A269">
+        <v>267</v>
+      </c>
+      <c r="B269">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="C269">
+        <v>0.70718800000000004</v>
+      </c>
+      <c r="D269">
+        <v>14.081899999999999</v>
+      </c>
+      <c r="G269">
+        <v>257.99</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A270">
+        <v>268</v>
+      </c>
+      <c r="B270">
+        <v>0</v>
+      </c>
+      <c r="C270">
+        <v>0.70713999999999999</v>
+      </c>
+      <c r="D270">
+        <v>14.0837</v>
+      </c>
+      <c r="G270">
+        <v>255.26</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A271">
+        <v>269</v>
+      </c>
+      <c r="B271">
+        <v>0</v>
+      </c>
+      <c r="C271">
+        <v>0.70710200000000001</v>
+      </c>
+      <c r="D271">
+        <v>13.959099999999999</v>
+      </c>
+      <c r="G271">
+        <v>252.51</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A272">
+        <v>270</v>
+      </c>
+      <c r="B272">
+        <v>0</v>
+      </c>
+      <c r="C272">
+        <v>0.70708499999999996</v>
+      </c>
+      <c r="D272">
+        <v>13.623100000000001</v>
+      </c>
+      <c r="G272">
+        <v>249.71</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A273">
+        <v>271</v>
+      </c>
+      <c r="B273">
+        <v>0</v>
+      </c>
+      <c r="C273">
+        <v>0.707067</v>
+      </c>
+      <c r="D273">
+        <v>13.537100000000001</v>
+      </c>
+      <c r="G273">
+        <v>280.22000000000003</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A274">
+        <v>272</v>
+      </c>
+      <c r="B274">
+        <v>0</v>
+      </c>
+      <c r="C274">
+        <v>0.70703700000000003</v>
+      </c>
+      <c r="D274">
+        <v>13.7333</v>
+      </c>
+      <c r="G274">
+        <v>277.36</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A275">
+        <v>273</v>
+      </c>
+      <c r="B275">
+        <v>0</v>
+      </c>
+      <c r="C275">
+        <v>0.70701099999999995</v>
+      </c>
+      <c r="D275">
+        <v>14.5791</v>
+      </c>
+      <c r="G275">
+        <v>274.47000000000003</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A276">
+        <v>274</v>
+      </c>
+      <c r="B276">
+        <v>0</v>
+      </c>
+      <c r="C276">
+        <v>0.70699699999999999</v>
+      </c>
+      <c r="D276">
+        <v>15.166600000000001</v>
+      </c>
+      <c r="G276">
+        <v>271.55</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A277">
+        <v>275</v>
+      </c>
+      <c r="B277">
+        <v>0</v>
+      </c>
+      <c r="C277">
+        <v>0.70700600000000002</v>
+      </c>
+      <c r="D277">
+        <v>15.1211</v>
+      </c>
+      <c r="G277">
+        <v>268.60000000000002</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A278">
+        <v>276</v>
+      </c>
+      <c r="B278">
+        <v>0</v>
+      </c>
+      <c r="C278">
+        <v>0.70706000000000002</v>
+      </c>
+      <c r="D278">
+        <v>14.4292</v>
+      </c>
+      <c r="G278">
+        <v>229.29</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A279">
+        <v>277</v>
+      </c>
+      <c r="B279">
+        <v>0</v>
+      </c>
+      <c r="C279">
+        <v>0.70711400000000002</v>
+      </c>
+      <c r="D279">
+        <v>13.153600000000001</v>
+      </c>
+      <c r="G279">
+        <v>226.29</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A280">
+        <v>278</v>
+      </c>
+      <c r="B280">
+        <v>0</v>
+      </c>
+      <c r="C280">
+        <v>0.70713300000000001</v>
+      </c>
+      <c r="D280">
+        <v>12.4719</v>
+      </c>
+      <c r="G280">
+        <v>223.25</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A281">
+        <v>279</v>
+      </c>
+      <c r="B281">
+        <v>0</v>
+      </c>
+      <c r="C281">
+        <v>0.70713099999999995</v>
+      </c>
+      <c r="D281">
+        <v>12.198600000000001</v>
+      </c>
+      <c r="G281">
+        <v>220.19</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A282">
+        <v>280</v>
+      </c>
+      <c r="B282">
+        <v>0</v>
+      </c>
+      <c r="C282">
+        <v>0.70712699999999995</v>
+      </c>
+      <c r="D282">
+        <v>12.213699999999999</v>
+      </c>
+      <c r="G282">
+        <v>187.77</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A283">
+        <v>281</v>
+      </c>
+      <c r="B283">
+        <v>0</v>
+      </c>
+      <c r="C283">
+        <v>0.70713099999999995</v>
+      </c>
+      <c r="D283">
+        <v>12.5251</v>
+      </c>
+      <c r="G283">
+        <v>184.66</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A284">
+        <v>282</v>
+      </c>
+      <c r="B284">
+        <v>0</v>
+      </c>
+      <c r="C284">
+        <v>0.70716400000000001</v>
+      </c>
+      <c r="D284">
+        <v>12.969200000000001</v>
+      </c>
+      <c r="G284">
+        <v>181.53</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A285">
+        <v>283</v>
+      </c>
+      <c r="B285">
+        <v>0</v>
+      </c>
+      <c r="C285">
+        <v>0.70722700000000005</v>
+      </c>
+      <c r="D285">
+        <v>13.2844</v>
+      </c>
+      <c r="G285">
+        <v>178.37</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A286">
+        <v>284</v>
+      </c>
+      <c r="B286">
+        <v>0</v>
+      </c>
+      <c r="C286">
+        <v>0.70728800000000003</v>
+      </c>
+      <c r="D286">
+        <v>13.4259</v>
+      </c>
+      <c r="G286">
+        <v>175.19</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A287">
+        <v>285</v>
+      </c>
+      <c r="B287">
+        <v>0</v>
+      </c>
+      <c r="C287">
+        <v>0.707341</v>
+      </c>
+      <c r="D287">
+        <v>13.4763</v>
+      </c>
+      <c r="G287">
+        <v>181.32</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A288">
+        <v>286</v>
+      </c>
+      <c r="B288">
+        <v>0</v>
+      </c>
+      <c r="C288">
+        <v>0.70739700000000005</v>
+      </c>
+      <c r="D288">
+        <v>13.492699999999999</v>
+      </c>
+      <c r="G288">
+        <v>178.1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A289">
+        <v>287</v>
+      </c>
+      <c r="B289">
+        <v>0</v>
+      </c>
+      <c r="C289">
+        <v>0.70747599999999999</v>
+      </c>
+      <c r="D289">
+        <v>13.4978</v>
+      </c>
+      <c r="G289">
+        <v>174.86</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A290">
+        <v>288</v>
+      </c>
+      <c r="B290">
+        <v>0</v>
+      </c>
+      <c r="C290">
+        <v>0.70758399999999999</v>
+      </c>
+      <c r="D290">
+        <v>13.498900000000001</v>
+      </c>
+      <c r="G290">
+        <v>171.6</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A291">
+        <v>289</v>
+      </c>
+      <c r="B291">
+        <v>0</v>
+      </c>
+      <c r="C291">
+        <v>0.70768399999999998</v>
+      </c>
+      <c r="D291">
+        <v>13.1005</v>
+      </c>
+      <c r="G291">
+        <v>168.32</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A292">
+        <v>290</v>
+      </c>
+      <c r="B292">
+        <v>0</v>
+      </c>
+      <c r="C292">
+        <v>0.707735</v>
+      </c>
+      <c r="D292">
+        <v>12.6006</v>
+      </c>
+      <c r="G292">
+        <v>113.53</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A293">
+        <v>291</v>
+      </c>
+      <c r="B293">
+        <v>0</v>
+      </c>
+      <c r="C293">
+        <v>0.70774400000000004</v>
+      </c>
+      <c r="D293">
+        <v>12.5999</v>
+      </c>
+      <c r="G293">
+        <v>110.22</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A294">
+        <v>292</v>
+      </c>
+      <c r="B294">
+        <v>0</v>
+      </c>
+      <c r="C294">
+        <v>0.70774300000000001</v>
+      </c>
+      <c r="D294">
+        <v>12.5998</v>
+      </c>
+      <c r="G294">
+        <v>106.89</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A295">
+        <v>293</v>
+      </c>
+      <c r="B295">
+        <v>0</v>
+      </c>
+      <c r="C295">
+        <v>0.70777999999999996</v>
+      </c>
+      <c r="D295">
+        <v>12.599399999999999</v>
+      </c>
+      <c r="G295">
+        <v>103.56</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A296">
+        <v>294</v>
+      </c>
+      <c r="B296">
+        <v>0</v>
+      </c>
+      <c r="C296">
+        <v>0.707866</v>
+      </c>
+      <c r="D296">
+        <v>12.598100000000001</v>
+      </c>
+      <c r="G296">
+        <v>100.2</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A297">
+        <v>295</v>
+      </c>
+      <c r="B297">
+        <v>2.7E-4</v>
+      </c>
+      <c r="C297">
+        <v>0.70792999999999995</v>
+      </c>
+      <c r="D297">
+        <v>12.5937</v>
+      </c>
+      <c r="G297">
+        <v>55.34</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A298">
+        <v>296</v>
+      </c>
+      <c r="B298">
+        <v>0.10798000000000001</v>
+      </c>
+      <c r="C298">
+        <v>0.70796000000000003</v>
+      </c>
+      <c r="D298">
+        <v>12.5809</v>
+      </c>
+      <c r="G298">
+        <v>51.96</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A299">
+        <v>297</v>
+      </c>
+      <c r="B299">
+        <v>0.79788999999999999</v>
+      </c>
+      <c r="C299">
+        <v>0.70797900000000002</v>
+      </c>
+      <c r="D299">
+        <v>12.554</v>
+      </c>
+      <c r="G299">
+        <v>15.57</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A300">
+        <v>298</v>
+      </c>
+      <c r="B300">
+        <v>0.10798000000000001</v>
+      </c>
+      <c r="C300">
+        <v>0.708005</v>
+      </c>
+      <c r="D300">
+        <v>12.5242</v>
+      </c>
+      <c r="G300">
+        <v>12.18</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A301">
+        <v>299</v>
+      </c>
+      <c r="B301">
+        <v>2.7E-4</v>
+      </c>
+      <c r="C301">
+        <v>0.70804400000000001</v>
+      </c>
+      <c r="D301">
+        <v>12.506399999999999</v>
+      </c>
+      <c r="G301">
+        <v>59.77</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A302">
+        <v>300</v>
+      </c>
+      <c r="B302">
+        <v>0</v>
+      </c>
+      <c r="C302">
+        <v>0.70809299999999997</v>
+      </c>
+      <c r="D302">
+        <v>12.4855</v>
+      </c>
+      <c r="G302">
+        <v>56.36</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A303">
+        <v>301</v>
+      </c>
+      <c r="B303">
+        <v>0</v>
+      </c>
+      <c r="C303">
+        <v>0.70814299999999997</v>
+      </c>
+      <c r="D303">
+        <v>12.3462</v>
+      </c>
+      <c r="G303">
+        <v>52.93</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A304">
+        <v>302</v>
+      </c>
+      <c r="B304">
+        <v>0</v>
+      </c>
+      <c r="C304">
+        <v>0.70818499999999995</v>
+      </c>
+      <c r="D304">
+        <v>11.8957</v>
+      </c>
+      <c r="G304">
+        <v>49.51</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A305">
+        <v>303</v>
+      </c>
+      <c r="B305">
+        <v>0</v>
+      </c>
+      <c r="C305">
+        <v>0.70821400000000001</v>
+      </c>
+      <c r="D305">
+        <v>11.6556</v>
+      </c>
+      <c r="G305">
+        <v>46.07</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A306">
+        <v>304</v>
+      </c>
+      <c r="B306">
+        <v>0</v>
+      </c>
+      <c r="C306">
+        <v>0.70823599999999998</v>
+      </c>
+      <c r="D306">
+        <v>11.6151</v>
+      </c>
+      <c r="G306">
+        <v>55.13</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A307">
+        <v>305</v>
+      </c>
+      <c r="B307">
+        <v>0</v>
+      </c>
+      <c r="C307">
+        <v>0.708256</v>
+      </c>
+      <c r="D307">
+        <v>11.736499999999999</v>
+      </c>
+      <c r="G307">
+        <v>51.69</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A308">
+        <v>306</v>
+      </c>
+      <c r="B308">
+        <v>0</v>
+      </c>
+      <c r="C308">
+        <v>0.70826900000000004</v>
+      </c>
+      <c r="D308">
+        <v>12.2758</v>
+      </c>
+      <c r="G308">
+        <v>48.24</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A309">
+        <v>307</v>
+      </c>
+      <c r="B309">
+        <v>0</v>
+      </c>
+      <c r="C309">
+        <v>0.70827499999999999</v>
+      </c>
+      <c r="D309">
+        <v>13.044499999999999</v>
+      </c>
+      <c r="G309">
+        <v>76.8</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A310">
+        <v>308</v>
+      </c>
+      <c r="B310">
+        <v>0</v>
+      </c>
+      <c r="C310">
+        <v>0.70827700000000005</v>
+      </c>
+      <c r="D310">
+        <v>13.404500000000001</v>
+      </c>
+      <c r="G310">
+        <v>73.349999999999994</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A311">
+        <v>309</v>
+      </c>
+      <c r="B311">
+        <v>0</v>
+      </c>
+      <c r="C311">
+        <v>0.70828000000000002</v>
+      </c>
+      <c r="D311">
+        <v>13.5153</v>
+      </c>
+      <c r="G311">
+        <v>69.900000000000006</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A312">
+        <v>310</v>
+      </c>
+      <c r="B312">
+        <v>0</v>
+      </c>
+      <c r="C312">
+        <v>0.70828599999999997</v>
+      </c>
+      <c r="D312">
+        <v>13.646699999999999</v>
+      </c>
+      <c r="G312">
+        <v>34.950000000000003</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A313">
+        <v>311</v>
+      </c>
+      <c r="B313">
+        <v>0</v>
+      </c>
+      <c r="C313">
+        <v>0.70828999999999998</v>
+      </c>
+      <c r="D313">
+        <v>13.917899999999999</v>
+      </c>
+      <c r="G313">
+        <v>31.5</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A314">
+        <v>312</v>
+      </c>
+      <c r="B314">
+        <v>0</v>
+      </c>
+      <c r="C314">
+        <v>0.70829299999999995</v>
+      </c>
+      <c r="D314">
+        <v>14.3193</v>
+      </c>
+      <c r="G314">
+        <v>-15.45</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A315">
+        <v>313</v>
+      </c>
+      <c r="B315">
+        <v>0</v>
+      </c>
+      <c r="C315">
+        <v>0.70829399999999998</v>
+      </c>
+      <c r="D315">
+        <v>14.753299999999999</v>
+      </c>
+      <c r="G315">
+        <v>-18.89</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A316">
+        <v>314</v>
+      </c>
+      <c r="B316">
+        <v>0</v>
+      </c>
+      <c r="C316">
+        <v>0.708291</v>
+      </c>
+      <c r="D316">
+        <v>15.120100000000001</v>
+      </c>
+      <c r="G316">
+        <v>-22.33</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A317">
+        <v>315</v>
+      </c>
+      <c r="B317">
+        <v>0</v>
+      </c>
+      <c r="C317">
+        <v>0.708283</v>
+      </c>
+      <c r="D317">
+        <v>15.4076</v>
+      </c>
+      <c r="G317">
+        <v>-55.26</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A318">
+        <v>316</v>
+      </c>
+      <c r="B318">
+        <v>0</v>
+      </c>
+      <c r="C318">
+        <v>0.70826999999999996</v>
+      </c>
+      <c r="D318">
+        <v>15.598100000000001</v>
+      </c>
+      <c r="G318">
+        <v>-58.69</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A319">
+        <v>317</v>
+      </c>
+      <c r="B319">
+        <v>0</v>
+      </c>
+      <c r="C319">
+        <v>0.70825400000000005</v>
+      </c>
+      <c r="D319">
+        <v>15.628399999999999</v>
+      </c>
+      <c r="G319">
+        <v>-62.11</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A320">
+        <v>318</v>
+      </c>
+      <c r="B320">
+        <v>0</v>
+      </c>
+      <c r="C320">
+        <v>0.708233</v>
+      </c>
+      <c r="D320">
+        <v>15.450100000000001</v>
+      </c>
+      <c r="G320">
+        <v>-65.52</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A321">
+        <v>319</v>
+      </c>
+      <c r="B321">
+        <v>0</v>
+      </c>
+      <c r="C321">
+        <v>0.70819900000000002</v>
+      </c>
+      <c r="D321">
+        <v>15.144399999999999</v>
+      </c>
+      <c r="G321">
+        <v>-75.430000000000007</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A322">
+        <v>320</v>
+      </c>
+      <c r="B322">
+        <v>0</v>
+      </c>
+      <c r="C322">
+        <v>0.70816000000000001</v>
+      </c>
+      <c r="D322">
+        <v>14.946400000000001</v>
+      </c>
+      <c r="G322">
+        <v>-78.83</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A323">
+        <v>321</v>
+      </c>
+      <c r="B323">
+        <v>0</v>
+      </c>
+      <c r="C323">
+        <v>0.70812299999999995</v>
+      </c>
+      <c r="D323">
+        <v>14.9688</v>
+      </c>
+      <c r="G323">
+        <v>-82.21</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A324">
+        <v>322</v>
+      </c>
+      <c r="B324">
+        <v>0</v>
+      </c>
+      <c r="C324">
+        <v>0.70807299999999995</v>
+      </c>
+      <c r="D324">
+        <v>15.047599999999999</v>
+      </c>
+      <c r="G324">
+        <v>-85.59</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A325">
+        <v>323</v>
+      </c>
+      <c r="B325">
+        <v>0</v>
+      </c>
+      <c r="C325">
+        <v>0.70801700000000001</v>
+      </c>
+      <c r="D325">
+        <v>14.9391</v>
+      </c>
+      <c r="G325">
+        <v>91.54</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A326">
+        <v>324</v>
+      </c>
+      <c r="B326">
+        <v>0</v>
+      </c>
+      <c r="C326">
+        <v>0.70799000000000001</v>
+      </c>
+      <c r="D326">
+        <v>14.6096</v>
+      </c>
+      <c r="G326">
+        <v>88.19</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A327">
+        <v>325</v>
+      </c>
+      <c r="B327">
+        <v>0</v>
+      </c>
+      <c r="C327">
+        <v>0.70798700000000003</v>
+      </c>
+      <c r="D327">
+        <v>14.3027</v>
+      </c>
+      <c r="G327">
+        <v>84.85</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A328">
+        <v>326</v>
+      </c>
+      <c r="B328">
+        <v>0</v>
+      </c>
+      <c r="C328">
+        <v>0.70798300000000003</v>
+      </c>
+      <c r="D328">
+        <v>14.1447</v>
+      </c>
+      <c r="G328">
+        <v>81.53</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A329">
+        <v>327</v>
+      </c>
+      <c r="B329">
+        <v>0</v>
+      </c>
+      <c r="C329">
+        <v>0.70796599999999998</v>
+      </c>
+      <c r="D329">
+        <v>14.071099999999999</v>
+      </c>
+      <c r="G329">
+        <v>173.72</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A330">
+        <v>328</v>
+      </c>
+      <c r="B330">
+        <v>0</v>
+      </c>
+      <c r="C330">
+        <v>0.70793099999999998</v>
+      </c>
+      <c r="D330">
+        <v>13.9941</v>
+      </c>
+      <c r="G330">
+        <v>170.43</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A331">
+        <v>329</v>
+      </c>
+      <c r="B331">
+        <v>0</v>
+      </c>
+      <c r="C331">
+        <v>0.70787900000000004</v>
+      </c>
+      <c r="D331">
+        <v>13.9055</v>
+      </c>
+      <c r="G331">
+        <v>167.15</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A332">
+        <v>330</v>
+      </c>
+      <c r="B332">
+        <v>0</v>
+      </c>
+      <c r="C332">
+        <v>0.70782299999999998</v>
+      </c>
+      <c r="D332">
+        <v>13.868600000000001</v>
+      </c>
+      <c r="G332">
+        <v>163.89</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A333">
+        <v>331</v>
+      </c>
+      <c r="B333">
+        <v>0</v>
+      </c>
+      <c r="C333">
+        <v>0.70777800000000002</v>
+      </c>
+      <c r="D333">
+        <v>13.961499999999999</v>
+      </c>
+      <c r="G333">
+        <v>160.65</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A334">
+        <v>332</v>
+      </c>
+      <c r="B334">
+        <v>0</v>
+      </c>
+      <c r="C334">
+        <v>0.70775200000000005</v>
+      </c>
+      <c r="D334">
+        <v>14.1426</v>
+      </c>
+      <c r="G334">
+        <v>157.43</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A335">
+        <v>333</v>
+      </c>
+      <c r="B335">
+        <v>0</v>
+      </c>
+      <c r="C335">
+        <v>0.70774400000000004</v>
+      </c>
+      <c r="D335">
+        <v>14.252800000000001</v>
+      </c>
+      <c r="G335">
+        <v>154.22999999999999</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A336">
+        <v>334</v>
+      </c>
+      <c r="B336">
+        <v>0</v>
+      </c>
+      <c r="C336">
+        <v>0.70774999999999999</v>
+      </c>
+      <c r="D336">
+        <v>14.2966</v>
+      </c>
+      <c r="G336">
+        <v>151.05000000000001</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A337">
+        <v>335</v>
+      </c>
+      <c r="B337">
+        <v>0</v>
+      </c>
+      <c r="C337">
+        <v>0.70776300000000003</v>
+      </c>
+      <c r="D337">
+        <v>14.372</v>
+      </c>
+      <c r="G337">
+        <v>147.9</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A338">
+        <v>336</v>
+      </c>
+      <c r="B338">
+        <v>0</v>
+      </c>
+      <c r="C338">
+        <v>0.70777599999999996</v>
+      </c>
+      <c r="D338">
+        <v>14.7041</v>
+      </c>
+      <c r="G338">
+        <v>105.26</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A339">
+        <v>337</v>
+      </c>
+      <c r="B339">
+        <v>0</v>
+      </c>
+      <c r="C339">
+        <v>0.707789</v>
+      </c>
+      <c r="D339">
+        <v>15.475300000000001</v>
+      </c>
+      <c r="G339">
+        <v>102.15</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A340">
+        <v>338</v>
+      </c>
+      <c r="B340">
+        <v>0</v>
+      </c>
+      <c r="C340">
+        <v>0.70780600000000005</v>
+      </c>
+      <c r="D340">
+        <v>16.417000000000002</v>
+      </c>
+      <c r="G340">
+        <v>99.07</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A341">
+        <v>339</v>
+      </c>
+      <c r="B341">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="C341">
+        <v>0.70782299999999998</v>
+      </c>
+      <c r="D341">
+        <v>17.297699999999999</v>
+      </c>
+      <c r="G341">
+        <v>96.01</v>
+      </c>
+    </row>
+    <row r="342" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A342">
+        <v>340</v>
+      </c>
+      <c r="B342">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="C342">
+        <v>0.70782500000000004</v>
+      </c>
+      <c r="D342">
+        <v>18.031400000000001</v>
+      </c>
+      <c r="G342">
+        <v>92.98</v>
+      </c>
+    </row>
+    <row r="343" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A343">
+        <v>341</v>
+      </c>
+      <c r="B343">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="C343">
+        <v>0.707812</v>
+      </c>
+      <c r="D343">
+        <v>18.5444</v>
+      </c>
+      <c r="G343">
+        <v>89.97</v>
+      </c>
+    </row>
+    <row r="344" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A344">
+        <v>342</v>
+      </c>
+      <c r="B344">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="C344">
+        <v>0.70780299999999996</v>
+      </c>
+      <c r="D344">
+        <v>18.599299999999999</v>
+      </c>
+      <c r="G344">
+        <v>86.99</v>
+      </c>
+    </row>
+    <row r="345" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A345">
+        <v>343</v>
+      </c>
+      <c r="B345">
+        <v>6.0000000000000002E-5</v>
+      </c>
+      <c r="C345">
+        <v>0.70780299999999996</v>
+      </c>
+      <c r="D345">
+        <v>18.089500000000001</v>
+      </c>
+      <c r="G345">
+        <v>84.04</v>
+      </c>
+    </row>
+    <row r="346" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A346">
+        <v>344</v>
+      </c>
+      <c r="B346">
+        <v>1E-4</v>
+      </c>
+      <c r="C346">
+        <v>0.707812</v>
+      </c>
+      <c r="D346">
+        <v>17.743500000000001</v>
+      </c>
+      <c r="G346">
+        <v>81.13</v>
+      </c>
+    </row>
+    <row r="347" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A347">
+        <v>345</v>
+      </c>
+      <c r="B347">
+        <v>1.6000000000000001E-4</v>
+      </c>
+      <c r="C347">
+        <v>0.70783300000000005</v>
+      </c>
+      <c r="D347">
+        <v>17.6722</v>
+      </c>
+      <c r="G347">
+        <v>78.239999999999995</v>
+      </c>
+    </row>
+    <row r="348" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A348">
+        <v>346</v>
+      </c>
+      <c r="B348">
+        <v>2.5999999999999998E-4</v>
+      </c>
+      <c r="C348">
+        <v>0.70785200000000004</v>
+      </c>
+      <c r="D348">
+        <v>17.712399999999999</v>
+      </c>
+      <c r="G348">
+        <v>3.88</v>
+      </c>
+    </row>
+    <row r="349" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A349">
+        <v>347</v>
+      </c>
+      <c r="B349">
+        <v>4.0999999999999999E-4</v>
+      </c>
+      <c r="C349">
+        <v>0.70787999999999995</v>
+      </c>
+      <c r="D349">
+        <v>17.918399999999998</v>
+      </c>
+      <c r="G349">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A350">
+        <v>348</v>
+      </c>
+      <c r="B350">
+        <v>6.3000000000000003E-4</v>
+      </c>
+      <c r="C350">
+        <v>0.70790299999999995</v>
+      </c>
+      <c r="D350">
+        <v>18.607299999999999</v>
+      </c>
+      <c r="G350">
+        <v>-1.73</v>
+      </c>
+    </row>
+    <row r="351" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A351">
+        <v>349</v>
+      </c>
+      <c r="B351">
+        <v>9.6000000000000002E-4</v>
+      </c>
+      <c r="C351">
+        <v>0.70794000000000001</v>
+      </c>
+      <c r="D351">
+        <v>19.879899999999999</v>
+      </c>
+      <c r="G351">
+        <v>-4.49</v>
+      </c>
+    </row>
+    <row r="352" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A352">
+        <v>350</v>
+      </c>
+      <c r="B352">
+        <v>1.4300000000000001E-3</v>
+      </c>
+      <c r="C352">
+        <v>0.70799100000000004</v>
+      </c>
+      <c r="D352">
+        <v>20.832899999999999</v>
+      </c>
+      <c r="G352">
+        <v>-7.21</v>
+      </c>
+    </row>
+    <row r="353" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A353">
+        <v>351</v>
+      </c>
+      <c r="B353">
+        <v>2.0899999999999998E-3</v>
+      </c>
+      <c r="C353">
+        <v>0.70804800000000001</v>
+      </c>
+      <c r="D353">
+        <v>21.175699999999999</v>
+      </c>
+      <c r="G353">
+        <v>-9.9</v>
+      </c>
+    </row>
+    <row r="354" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A354">
+        <v>352</v>
+      </c>
+      <c r="B354">
+        <v>2.99E-3</v>
+      </c>
+      <c r="C354">
+        <v>0.70809800000000001</v>
+      </c>
+      <c r="D354">
+        <v>21.2424</v>
+      </c>
+      <c r="G354">
+        <v>-12.55</v>
+      </c>
+    </row>
+    <row r="355" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A355">
+        <v>353</v>
+      </c>
+      <c r="B355">
+        <v>4.1799999999999997E-3</v>
+      </c>
+      <c r="C355">
+        <v>0.70813899999999996</v>
+      </c>
+      <c r="D355">
+        <v>21.101900000000001</v>
+      </c>
+      <c r="G355">
+        <v>-146.16</v>
+      </c>
+    </row>
+    <row r="356" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A356">
+        <v>354</v>
+      </c>
+      <c r="B356">
+        <v>5.7400000000000003E-3</v>
+      </c>
+      <c r="C356">
+        <v>0.70818099999999995</v>
+      </c>
+      <c r="D356">
+        <v>20.4954</v>
+      </c>
+      <c r="G356">
+        <v>-148.72999999999999</v>
+      </c>
+    </row>
+    <row r="357" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A357">
+        <v>355</v>
+      </c>
+      <c r="B357">
+        <v>7.7099999999999998E-3</v>
+      </c>
+      <c r="C357">
+        <v>0.70823000000000003</v>
+      </c>
+      <c r="D357">
+        <v>19.8873</v>
+      </c>
+      <c r="G357">
+        <v>-151.26</v>
+      </c>
+    </row>
+    <row r="358" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A358">
+        <v>356</v>
+      </c>
+      <c r="B358">
+        <v>1.0160000000000001E-2</v>
+      </c>
+      <c r="C358">
+        <v>0.70828400000000002</v>
+      </c>
+      <c r="D358">
+        <v>19.727599999999999</v>
+      </c>
+      <c r="G358">
+        <v>-153.76</v>
+      </c>
+    </row>
+    <row r="359" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A359">
+        <v>357</v>
+      </c>
+      <c r="B359">
+        <v>1.311E-2</v>
+      </c>
+      <c r="C359">
+        <v>0.70832899999999999</v>
+      </c>
+      <c r="D359">
+        <v>19.703700000000001</v>
+      </c>
+      <c r="G359">
+        <v>-156.21</v>
+      </c>
+    </row>
+    <row r="360" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A360">
+        <v>358</v>
+      </c>
+      <c r="B360">
+        <v>1.6580000000000001E-2</v>
+      </c>
+      <c r="C360">
+        <v>0.70835800000000004</v>
+      </c>
+      <c r="D360">
+        <v>19.700500000000002</v>
+      </c>
+      <c r="G360">
+        <v>-158.62</v>
+      </c>
+    </row>
+    <row r="361" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A361">
+        <v>359</v>
+      </c>
+      <c r="B361">
+        <v>2.0539999999999999E-2</v>
+      </c>
+      <c r="C361">
+        <v>0.70837899999999998</v>
+      </c>
+      <c r="D361">
+        <v>19.700099999999999</v>
+      </c>
+      <c r="G361">
+        <v>-160.99</v>
+      </c>
+    </row>
+    <row r="362" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A362">
+        <v>360</v>
+      </c>
+      <c r="B362">
+        <v>2.494E-2</v>
+      </c>
+      <c r="C362">
+        <v>0.70839799999999997</v>
+      </c>
+      <c r="D362">
+        <v>19.7</v>
+      </c>
+      <c r="G362">
+        <v>-248.48</v>
+      </c>
+    </row>
+    <row r="363" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A363">
+        <v>361</v>
+      </c>
+      <c r="B363">
+        <v>2.9659999999999999E-2</v>
+      </c>
+      <c r="C363">
+        <v>0.70841399999999999</v>
+      </c>
+      <c r="D363">
+        <v>19.7</v>
+      </c>
+      <c r="G363">
+        <v>-250.76</v>
+      </c>
+    </row>
+    <row r="364" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A364">
+        <v>362</v>
+      </c>
+      <c r="B364">
+        <v>3.4569999999999997E-2</v>
+      </c>
+      <c r="C364">
+        <v>0.70842499999999997</v>
+      </c>
+      <c r="D364">
+        <v>19.7</v>
+      </c>
+      <c r="G364">
+        <v>-252.99</v>
+      </c>
+    </row>
+    <row r="365" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A365">
+        <v>363</v>
+      </c>
+      <c r="B365">
+        <v>3.9469999999999998E-2</v>
+      </c>
+      <c r="C365">
+        <v>0.70843299999999998</v>
+      </c>
+      <c r="D365">
+        <v>19.7</v>
+      </c>
+      <c r="G365">
+        <v>-255.18</v>
+      </c>
+    </row>
+    <row r="366" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A366">
+        <v>364</v>
+      </c>
+      <c r="B366">
+        <v>4.4159999999999998E-2</v>
+      </c>
+      <c r="C366">
+        <v>0.70843199999999995</v>
+      </c>
+      <c r="D366">
+        <v>19.7</v>
+      </c>
+      <c r="G366">
+        <v>-257.32</v>
+      </c>
+    </row>
+    <row r="367" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A367">
+        <v>365</v>
+      </c>
+      <c r="B367">
+        <v>4.8410000000000002E-2</v>
+      </c>
+      <c r="C367">
+        <v>0.70841900000000002</v>
+      </c>
+      <c r="D367">
+        <v>19.7012</v>
+      </c>
+      <c r="G367">
+        <v>-300.07</v>
+      </c>
+    </row>
+    <row r="368" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A368">
+        <v>366</v>
+      </c>
+      <c r="B368">
+        <v>5.1990000000000001E-2</v>
+      </c>
+      <c r="C368">
+        <v>0.70839700000000005</v>
+      </c>
+      <c r="D368">
+        <v>20.030200000000001</v>
+      </c>
+      <c r="G368">
+        <v>-302.11</v>
+      </c>
+    </row>
+    <row r="369" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A369">
+        <v>367</v>
+      </c>
+      <c r="B369">
+        <v>5.4710000000000002E-2</v>
+      </c>
+      <c r="C369">
+        <v>0.70836299999999996</v>
+      </c>
+      <c r="D369">
+        <v>23.1873</v>
+      </c>
+      <c r="G369">
+        <v>-304.10000000000002</v>
+      </c>
+    </row>
+    <row r="370" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A370">
+        <v>368</v>
+      </c>
+      <c r="B370">
+        <v>5.6410000000000002E-2</v>
+      </c>
+      <c r="C370">
+        <v>0.70829799999999998</v>
+      </c>
+      <c r="D370">
+        <v>23.299600000000002</v>
+      </c>
+      <c r="G370">
+        <v>-306.05</v>
+      </c>
+    </row>
+    <row r="371" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A371">
+        <v>369</v>
+      </c>
+      <c r="B371">
+        <v>5.6989999999999999E-2</v>
+      </c>
+      <c r="C371">
+        <v>0.70821400000000001</v>
+      </c>
+      <c r="D371">
+        <v>23.3</v>
+      </c>
+      <c r="G371">
+        <v>-307.94</v>
+      </c>
+    </row>
+    <row r="372" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A372">
+        <v>370</v>
+      </c>
+      <c r="B372">
+        <v>5.6410000000000002E-2</v>
+      </c>
+      <c r="C372">
+        <v>0.70816299999999999</v>
+      </c>
+      <c r="D372">
+        <v>23.3</v>
+      </c>
+      <c r="G372">
+        <v>-332.45</v>
+      </c>
+    </row>
+    <row r="373" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A373">
+        <v>371</v>
+      </c>
+      <c r="B373">
+        <v>5.4710000000000002E-2</v>
+      </c>
+      <c r="C373">
+        <v>0.70814299999999997</v>
+      </c>
+      <c r="D373">
+        <v>23.3</v>
+      </c>
+      <c r="G373">
+        <v>-334.23</v>
+      </c>
+    </row>
+    <row r="374" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A374">
+        <v>372</v>
+      </c>
+      <c r="B374">
+        <v>5.1990000000000001E-2</v>
+      </c>
+      <c r="C374">
+        <v>0.70813300000000001</v>
+      </c>
+      <c r="D374">
+        <v>23.3001</v>
+      </c>
+      <c r="G374">
+        <v>-335.96</v>
+      </c>
+    </row>
+    <row r="375" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A375">
+        <v>373</v>
+      </c>
+      <c r="B375">
+        <v>4.8410000000000002E-2</v>
+      </c>
+      <c r="C375">
+        <v>0.70812600000000003</v>
+      </c>
+      <c r="D375">
+        <v>23.3002</v>
+      </c>
+      <c r="G375">
+        <v>-337.64</v>
+      </c>
+    </row>
+    <row r="376" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A376">
+        <v>374</v>
+      </c>
+      <c r="B376">
+        <v>4.4159999999999998E-2</v>
+      </c>
+      <c r="C376">
+        <v>0.708121</v>
+      </c>
+      <c r="D376">
+        <v>23.300999999999998</v>
+      </c>
+      <c r="G376">
+        <v>-339.26</v>
+      </c>
+    </row>
+    <row r="377" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A377">
+        <v>375</v>
+      </c>
+      <c r="B377">
+        <v>3.9469999999999998E-2</v>
+      </c>
+      <c r="C377">
+        <v>0.70811999999999997</v>
+      </c>
+      <c r="D377">
+        <v>23.304099999999998</v>
+      </c>
+      <c r="G377">
+        <v>-228.49</v>
+      </c>
+    </row>
+    <row r="378" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A378">
+        <v>376</v>
+      </c>
+      <c r="B378">
+        <v>3.4569999999999997E-2</v>
+      </c>
+      <c r="C378">
+        <v>0.70811900000000005</v>
+      </c>
+      <c r="D378">
+        <v>23.3171</v>
+      </c>
+      <c r="G378">
+        <v>-230</v>
+      </c>
+    </row>
+    <row r="379" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A379">
+        <v>377</v>
+      </c>
+      <c r="B379">
+        <v>3.5990000000000001E-2</v>
+      </c>
+      <c r="C379">
+        <v>0.70811800000000003</v>
+      </c>
+      <c r="D379">
+        <v>23.370899999999999</v>
+      </c>
+      <c r="G379">
+        <v>-231.45</v>
+      </c>
+    </row>
+    <row r="380" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A380">
+        <v>378</v>
+      </c>
+      <c r="B380">
+        <v>0.10934000000000001</v>
+      </c>
+      <c r="C380">
+        <v>0.70811599999999997</v>
+      </c>
+      <c r="D380">
+        <v>23.582599999999999</v>
+      </c>
+      <c r="G380">
+        <v>-232.84</v>
+      </c>
+    </row>
+    <row r="381" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A381">
+        <v>379</v>
+      </c>
+      <c r="B381">
+        <v>0.21296999999999999</v>
+      </c>
+      <c r="C381">
+        <v>0.70811100000000005</v>
+      </c>
+      <c r="D381">
+        <v>24.260400000000001</v>
+      </c>
+      <c r="G381">
+        <v>-168.82</v>
+      </c>
+    </row>
+    <row r="382" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A382">
+        <v>380</v>
+      </c>
+      <c r="B382">
+        <v>0.26595999999999997</v>
+      </c>
+      <c r="C382">
+        <v>0.70810399999999996</v>
+      </c>
+      <c r="D382">
+        <v>25.4971</v>
+      </c>
+      <c r="G382">
+        <v>-170.13</v>
+      </c>
+    </row>
+    <row r="383" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A383">
+        <v>381</v>
+      </c>
+      <c r="B383">
+        <v>0.21296999999999999</v>
+      </c>
+      <c r="C383">
+        <v>0.70809</v>
+      </c>
+      <c r="D383">
+        <v>26.433700000000002</v>
+      </c>
+      <c r="G383">
+        <v>-171.33</v>
+      </c>
+    </row>
+    <row r="384" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A384">
+        <v>382</v>
+      </c>
+      <c r="B384">
+        <v>0.10934000000000001</v>
+      </c>
+      <c r="C384">
+        <v>0.708063</v>
+      </c>
+      <c r="D384">
+        <v>26.746500000000001</v>
+      </c>
+      <c r="G384">
+        <v>-124.1</v>
+      </c>
+    </row>
+    <row r="385" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A385">
+        <v>383</v>
+      </c>
+      <c r="B385">
+        <v>3.5990000000000001E-2</v>
+      </c>
+      <c r="C385">
+        <v>0.70801800000000004</v>
+      </c>
+      <c r="D385">
+        <v>26.651199999999999</v>
+      </c>
+      <c r="G385">
+        <v>-125.2</v>
+      </c>
+    </row>
+    <row r="386" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A386">
+        <v>384</v>
+      </c>
+      <c r="B386">
+        <v>7.6E-3</v>
+      </c>
+      <c r="C386">
+        <v>0.70796700000000001</v>
+      </c>
+      <c r="D386">
+        <v>25.867100000000001</v>
+      </c>
+      <c r="G386">
+        <v>-126.2</v>
+      </c>
+    </row>
+    <row r="387" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A387">
+        <v>385</v>
+      </c>
+      <c r="B387">
+        <v>4.1799999999999997E-3</v>
+      </c>
+      <c r="C387">
+        <v>0.707924</v>
+      </c>
+      <c r="D387">
+        <v>24.432300000000001</v>
+      </c>
+      <c r="G387">
+        <v>-127.2</v>
+      </c>
+    </row>
+    <row r="388" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A388">
+        <v>386</v>
+      </c>
+      <c r="B388">
+        <v>2.99E-3</v>
+      </c>
+      <c r="C388">
+        <v>0.70789000000000002</v>
+      </c>
+      <c r="D388">
+        <v>23.685099999999998</v>
+      </c>
+      <c r="G388">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="389" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A389">
+        <v>387</v>
+      </c>
+      <c r="B389">
+        <v>2.0899999999999998E-3</v>
+      </c>
+      <c r="C389">
+        <v>0.707866</v>
+      </c>
+      <c r="D389">
+        <v>23.421700000000001</v>
+      </c>
+      <c r="G389">
+        <v>22.1</v>
+      </c>
+    </row>
+    <row r="390" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A390">
+        <v>388</v>
+      </c>
+      <c r="B390">
+        <v>1.4300000000000001E-3</v>
+      </c>
+      <c r="C390">
+        <v>0.70785399999999998</v>
+      </c>
+      <c r="D390">
+        <v>23.141300000000001</v>
+      </c>
+      <c r="G390">
+        <v>21.4</v>
+      </c>
+    </row>
+    <row r="391" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A391">
+        <v>389</v>
+      </c>
+      <c r="B391">
+        <v>9.6000000000000002E-4</v>
+      </c>
+      <c r="C391">
+        <v>0.70785100000000001</v>
+      </c>
+      <c r="D391">
+        <v>22.6252</v>
+      </c>
+      <c r="G391">
+        <v>99.7</v>
+      </c>
+    </row>
+    <row r="392" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A392">
+        <v>390</v>
+      </c>
+      <c r="B392">
+        <v>6.3000000000000003E-4</v>
+      </c>
+      <c r="C392">
+        <v>0.70785200000000004</v>
+      </c>
+      <c r="D392">
+        <v>21.772200000000002</v>
+      </c>
+      <c r="G392">
+        <v>99.1</v>
+      </c>
+    </row>
+    <row r="393" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A393">
+        <v>391</v>
+      </c>
+      <c r="B393">
+        <v>4.0999999999999999E-4</v>
+      </c>
+      <c r="C393">
+        <v>0.70785699999999996</v>
+      </c>
+      <c r="D393">
+        <v>20.635000000000002</v>
+      </c>
+      <c r="G393">
+        <v>98.6</v>
+      </c>
+    </row>
+    <row r="394" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A394">
+        <v>392</v>
+      </c>
+      <c r="B394">
+        <v>2.5999999999999998E-4</v>
+      </c>
+      <c r="C394">
+        <v>0.70786499999999997</v>
+      </c>
+      <c r="D394">
+        <v>19.4038</v>
+      </c>
+      <c r="G394">
+        <v>183.1</v>
+      </c>
+    </row>
+    <row r="395" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A395">
+        <v>393</v>
+      </c>
+      <c r="B395">
+        <v>1.6000000000000001E-4</v>
+      </c>
+      <c r="C395">
+        <v>0.70787699999999998</v>
+      </c>
+      <c r="D395">
+        <v>18.286799999999999</v>
+      </c>
+      <c r="G395">
+        <v>182.7</v>
+      </c>
+    </row>
+    <row r="396" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A396">
+        <v>394</v>
+      </c>
+      <c r="B396">
+        <v>1E-4</v>
+      </c>
+      <c r="C396">
+        <v>0.70789000000000002</v>
+      </c>
+      <c r="D396">
+        <v>17.419799999999999</v>
+      </c>
+      <c r="G396">
+        <v>182.4</v>
+      </c>
+    </row>
+    <row r="397" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A397">
+        <v>395</v>
+      </c>
+      <c r="B397">
+        <v>6.0000000000000002E-5</v>
+      </c>
+      <c r="C397">
+        <v>0.70789899999999994</v>
+      </c>
+      <c r="D397">
+        <v>16.903500000000001</v>
+      </c>
+      <c r="G397">
+        <v>207.6</v>
+      </c>
+    </row>
+    <row r="398" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A398">
+        <v>396</v>
+      </c>
+      <c r="B398">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="C398">
+        <v>0.70790200000000003</v>
+      </c>
+      <c r="D398">
+        <v>16.724299999999999</v>
+      </c>
+      <c r="G398">
+        <v>207.5</v>
+      </c>
+    </row>
+    <row r="399" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A399">
+        <v>397</v>
+      </c>
+      <c r="B399">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="C399">
+        <v>0.70790299999999995</v>
+      </c>
+      <c r="D399">
+        <v>16.6601</v>
+      </c>
+      <c r="G399">
+        <v>207.4</v>
+      </c>
+    </row>
+    <row r="400" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A400">
+        <v>398</v>
+      </c>
+      <c r="B400">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="C400">
+        <v>0.70790399999999998</v>
+      </c>
+      <c r="D400">
+        <v>16.565200000000001</v>
+      </c>
+      <c r="G400">
+        <v>235.9</v>
+      </c>
+    </row>
+    <row r="401" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A401">
+        <v>399</v>
+      </c>
+      <c r="B401">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="C401">
+        <v>0.70790799999999998</v>
+      </c>
+      <c r="D401">
+        <v>15.361499999999999</v>
+      </c>
+      <c r="G401">
+        <v>235.9</v>
+      </c>
+    </row>
+    <row r="402" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A402">
+        <v>400</v>
+      </c>
+      <c r="B402">
+        <v>0</v>
+      </c>
+      <c r="C402">
+        <v>0.70791800000000005</v>
+      </c>
+      <c r="D402">
+        <v>15.9566</v>
+      </c>
+      <c r="G402">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="403" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A403">
+        <v>401</v>
+      </c>
+      <c r="B403">
+        <v>0</v>
+      </c>
+      <c r="C403">
+        <v>0.70793799999999996</v>
+      </c>
+      <c r="D403">
+        <v>15.3278</v>
+      </c>
+      <c r="G403">
+        <v>236.3</v>
+      </c>
+    </row>
+    <row r="404" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A404">
+        <v>402</v>
+      </c>
+      <c r="B404">
+        <v>0</v>
+      </c>
+      <c r="C404">
+        <v>0.707978</v>
+      </c>
+      <c r="D404">
+        <v>14.685600000000001</v>
+      </c>
+      <c r="G404">
+        <v>236.6</v>
+      </c>
+    </row>
+    <row r="405" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A405">
+        <v>403</v>
+      </c>
+      <c r="B405">
+        <v>0</v>
+      </c>
+      <c r="C405">
+        <v>0.70804100000000003</v>
+      </c>
+      <c r="D405">
+        <v>14.499000000000001</v>
+      </c>
+      <c r="G405">
+        <v>196.4</v>
+      </c>
+    </row>
+    <row r="406" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A406">
+        <v>404</v>
+      </c>
+      <c r="B406">
+        <v>0</v>
+      </c>
+      <c r="C406">
+        <v>0.70811800000000003</v>
+      </c>
+      <c r="D406">
+        <v>15.3917</v>
+      </c>
+      <c r="G406">
+        <v>196.9</v>
+      </c>
+    </row>
+    <row r="407" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A407">
+        <v>405</v>
+      </c>
+      <c r="B407">
+        <v>0</v>
+      </c>
+      <c r="C407">
+        <v>0.70819399999999999</v>
+      </c>
+      <c r="D407">
+        <v>17.601400000000002</v>
+      </c>
+      <c r="G407">
+        <v>197.4</v>
+      </c>
+    </row>
+    <row r="408" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A408">
+        <v>406</v>
+      </c>
+      <c r="B408">
+        <v>0</v>
+      </c>
+      <c r="C408">
+        <v>0.708264</v>
+      </c>
+      <c r="D408">
+        <v>20.127600000000001</v>
+      </c>
+      <c r="G408">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="409" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A409">
+        <v>407</v>
+      </c>
+      <c r="B409">
+        <v>0</v>
+      </c>
+      <c r="C409">
+        <v>0.70833500000000005</v>
+      </c>
+      <c r="D409">
+        <v>21.805900000000001</v>
+      </c>
+      <c r="G409">
+        <v>66.8</v>
+      </c>
+    </row>
+    <row r="410" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A410">
+        <v>408</v>
+      </c>
+      <c r="B410">
+        <v>0</v>
+      </c>
+      <c r="C410">
+        <v>0.708422</v>
+      </c>
+      <c r="D410">
+        <v>22.603200000000001</v>
+      </c>
+      <c r="G410">
+        <v>67.5</v>
+      </c>
+    </row>
+    <row r="411" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A411">
+        <v>409</v>
+      </c>
+      <c r="B411">
+        <v>0</v>
+      </c>
+      <c r="C411">
+        <v>0.70852300000000001</v>
+      </c>
+      <c r="D411">
+        <v>22.936299999999999</v>
+      </c>
+      <c r="G411">
+        <v>68.400000000000006</v>
+      </c>
+    </row>
+    <row r="412" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A412">
+        <v>410</v>
+      </c>
+      <c r="B412">
+        <v>0</v>
+      </c>
+      <c r="C412">
+        <v>0.70860999999999996</v>
+      </c>
+      <c r="D412">
+        <v>23.131</v>
+      </c>
+      <c r="G412">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="413" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A413">
+        <v>411</v>
+      </c>
+      <c r="B413">
+        <v>0</v>
+      </c>
+      <c r="C413">
+        <v>0.70866399999999996</v>
+      </c>
+      <c r="D413">
+        <v>23.355399999999999</v>
+      </c>
+      <c r="G413">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="414" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A414">
+        <v>412</v>
+      </c>
+      <c r="B414">
+        <v>0</v>
+      </c>
+      <c r="C414">
+        <v>0.70869300000000002</v>
+      </c>
+      <c r="D414">
+        <v>23.5898</v>
+      </c>
+      <c r="G414">
+        <v>-41.9</v>
+      </c>
+    </row>
+    <row r="415" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A415">
+        <v>413</v>
+      </c>
+      <c r="B415">
+        <v>0</v>
+      </c>
+      <c r="C415">
+        <v>0.70870599999999995</v>
+      </c>
+      <c r="D415">
+        <v>23.839400000000001</v>
+      </c>
+      <c r="G415">
+        <v>-40.700000000000003</v>
+      </c>
+    </row>
+    <row r="416" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A416">
+        <v>414</v>
+      </c>
+      <c r="B416">
+        <v>0</v>
+      </c>
+      <c r="C416">
+        <v>0.70871200000000001</v>
+      </c>
+      <c r="D416">
+        <v>24.1251</v>
+      </c>
+      <c r="G416">
+        <v>-82.9</v>
+      </c>
+    </row>
+    <row r="417" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A417">
+        <v>415</v>
+      </c>
+      <c r="B417">
+        <v>0</v>
+      </c>
+      <c r="C417">
+        <v>0.70871399999999996</v>
+      </c>
+      <c r="D417">
+        <v>24.470500000000001</v>
+      </c>
+      <c r="G417">
+        <v>-81.44</v>
+      </c>
+    </row>
+    <row r="418" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A418">
+        <v>416</v>
+      </c>
+      <c r="B418">
+        <v>0</v>
+      </c>
+      <c r="C418">
+        <v>0.70871499999999998</v>
+      </c>
+      <c r="D418">
+        <v>24.907800000000002</v>
+      </c>
+      <c r="G418">
+        <v>-48.44</v>
+      </c>
+    </row>
+    <row r="419" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A419">
+        <v>417</v>
+      </c>
+      <c r="B419">
+        <v>0</v>
+      </c>
+      <c r="C419">
+        <v>0.70871200000000001</v>
+      </c>
+      <c r="D419">
+        <v>25.454499999999999</v>
+      </c>
+      <c r="G419">
+        <v>-46.84</v>
+      </c>
+    </row>
+    <row r="420" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A420">
+        <v>418</v>
+      </c>
+      <c r="B420">
+        <v>0</v>
+      </c>
+      <c r="C420">
+        <v>0.708704</v>
+      </c>
+      <c r="D420">
+        <v>26.063099999999999</v>
+      </c>
+      <c r="G420">
+        <v>-45.15</v>
+      </c>
+    </row>
+    <row r="421" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A421">
+        <v>419</v>
+      </c>
+      <c r="B421">
+        <v>0</v>
+      </c>
+      <c r="C421">
+        <v>0.70868900000000001</v>
+      </c>
+      <c r="D421">
+        <v>26.604900000000001</v>
+      </c>
+      <c r="G421">
+        <v>32.64</v>
+      </c>
+    </row>
+    <row r="422" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A422">
+        <v>420</v>
+      </c>
+      <c r="B422">
+        <v>0</v>
+      </c>
+      <c r="C422">
+        <v>0.70866600000000002</v>
+      </c>
+      <c r="D422">
+        <v>26.95</v>
+      </c>
+      <c r="G422">
+        <v>34.520000000000003</v>
+      </c>
+    </row>
+    <row r="423" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A423">
+        <v>421</v>
+      </c>
+      <c r="B423">
+        <v>0</v>
+      </c>
+      <c r="C423">
+        <v>0.70863299999999996</v>
+      </c>
+      <c r="D423">
+        <v>27.0916</v>
+      </c>
+      <c r="G423">
+        <v>36.5</v>
+      </c>
+    </row>
+    <row r="424" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A424">
+        <v>422</v>
+      </c>
+      <c r="B424">
+        <v>0</v>
+      </c>
+      <c r="C424">
+        <v>0.70858900000000002</v>
+      </c>
+      <c r="D424">
+        <v>27.148800000000001</v>
+      </c>
+      <c r="G424">
+        <v>105.58</v>
+      </c>
+    </row>
+    <row r="425" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A425">
+        <v>423</v>
+      </c>
+      <c r="B425">
+        <v>0</v>
+      </c>
+      <c r="C425">
+        <v>0.70853500000000003</v>
+      </c>
+      <c r="D425">
+        <v>27.223600000000001</v>
+      </c>
+      <c r="G425">
+        <v>122.26</v>
+      </c>
+    </row>
+    <row r="426" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A426">
+        <v>424</v>
+      </c>
+      <c r="B426">
+        <v>0</v>
+      </c>
+      <c r="C426">
+        <v>0.70848100000000003</v>
+      </c>
+      <c r="D426">
+        <v>27.317699999999999</v>
+      </c>
+      <c r="G426">
+        <v>124.53</v>
+      </c>
+    </row>
+    <row r="427" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A427">
+        <v>425</v>
+      </c>
+      <c r="B427">
+        <v>0</v>
+      </c>
+      <c r="C427">
+        <v>0.70843599999999995</v>
+      </c>
+      <c r="D427">
+        <v>27.360600000000002</v>
+      </c>
+      <c r="G427">
+        <v>126.91</v>
+      </c>
+    </row>
+    <row r="428" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A428">
+        <v>426</v>
+      </c>
+      <c r="B428">
+        <v>0</v>
+      </c>
+      <c r="C428">
+        <v>0.70840499999999995</v>
+      </c>
+      <c r="D428">
+        <v>27.249500000000001</v>
+      </c>
+      <c r="G428">
+        <v>129.38</v>
+      </c>
+    </row>
+    <row r="429" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A429">
+        <v>427</v>
+      </c>
+      <c r="B429">
+        <v>0</v>
+      </c>
+      <c r="C429">
+        <v>0.70838199999999996</v>
+      </c>
+      <c r="D429">
+        <v>26.904800000000002</v>
+      </c>
+      <c r="G429">
+        <v>71.959999999999994</v>
+      </c>
+    </row>
+    <row r="430" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A430">
+        <v>428</v>
+      </c>
+      <c r="B430">
+        <v>0</v>
+      </c>
+      <c r="C430">
+        <v>0.70836399999999999</v>
+      </c>
+      <c r="D430">
+        <v>26.357900000000001</v>
+      </c>
+      <c r="G430">
+        <v>74.64</v>
+      </c>
+    </row>
+    <row r="431" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A431">
+        <v>429</v>
+      </c>
+      <c r="B431">
+        <v>0</v>
+      </c>
+      <c r="C431">
+        <v>0.708345</v>
+      </c>
+      <c r="D431">
+        <v>25.7988</v>
+      </c>
+      <c r="G431">
+        <v>-44.08</v>
+      </c>
+    </row>
+    <row r="432" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A432">
+        <v>430</v>
+      </c>
+      <c r="B432">
+        <v>0</v>
+      </c>
+      <c r="C432">
+        <v>0.70831900000000003</v>
+      </c>
+      <c r="D432">
+        <v>25.5608</v>
+      </c>
+      <c r="G432">
+        <v>-41.19</v>
+      </c>
+    </row>
+    <row r="433" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A433">
+        <v>431</v>
+      </c>
+      <c r="B433">
+        <v>0</v>
+      </c>
+      <c r="C433">
+        <v>0.70828400000000002</v>
+      </c>
+      <c r="D433">
+        <v>26.087</v>
+      </c>
+      <c r="G433">
+        <v>-38.200000000000003</v>
+      </c>
+    </row>
+    <row r="434" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A434">
+        <v>432</v>
+      </c>
+      <c r="B434">
+        <v>0</v>
+      </c>
+      <c r="C434">
+        <v>0.70824200000000004</v>
+      </c>
+      <c r="D434">
+        <v>27.352</v>
+      </c>
+      <c r="G434">
+        <v>-35.1</v>
+      </c>
+    </row>
+    <row r="435" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A435">
+        <v>433</v>
+      </c>
+      <c r="B435">
+        <v>0</v>
+      </c>
+      <c r="C435">
+        <v>0.70820399999999994</v>
+      </c>
+      <c r="D435">
+        <v>28.423999999999999</v>
+      </c>
+      <c r="G435">
+        <v>-31.9</v>
+      </c>
+    </row>
+    <row r="436" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A436">
+        <v>434</v>
+      </c>
+      <c r="B436">
+        <v>0</v>
+      </c>
+      <c r="C436">
+        <v>0.708175</v>
+      </c>
+      <c r="D436">
+        <v>28.9556</v>
+      </c>
+      <c r="G436">
+        <v>-28.58</v>
+      </c>
+    </row>
+    <row r="437" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A437">
+        <v>435</v>
+      </c>
+      <c r="B437">
+        <v>0</v>
+      </c>
+      <c r="C437">
+        <v>0.708152</v>
+      </c>
+      <c r="D437">
+        <v>29.2316</v>
+      </c>
+      <c r="G437">
+        <v>-25.16</v>
+      </c>
+    </row>
+    <row r="438" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A438">
+        <v>436</v>
+      </c>
+      <c r="B438">
+        <v>0</v>
+      </c>
+      <c r="C438">
+        <v>0.70812900000000001</v>
+      </c>
+      <c r="D438">
+        <v>29.4605</v>
+      </c>
+      <c r="G438">
+        <v>-146.30000000000001</v>
+      </c>
+    </row>
+    <row r="439" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A439">
+        <v>437</v>
+      </c>
+      <c r="B439">
+        <v>0</v>
+      </c>
+      <c r="C439">
+        <v>0.70810700000000004</v>
+      </c>
+      <c r="D439">
+        <v>29.706600000000002</v>
+      </c>
+      <c r="G439">
+        <v>-142.66</v>
+      </c>
+    </row>
+    <row r="440" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A440">
+        <v>438</v>
+      </c>
+      <c r="B440">
+        <v>0</v>
+      </c>
+      <c r="C440">
+        <v>0.70808400000000005</v>
+      </c>
+      <c r="D440">
+        <v>29.927</v>
+      </c>
+      <c r="G440">
+        <v>-138.9</v>
+      </c>
+    </row>
+    <row r="441" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A441">
+        <v>439</v>
+      </c>
+      <c r="B441">
+        <v>0</v>
+      </c>
+      <c r="C441">
+        <v>0.70805700000000005</v>
+      </c>
+      <c r="D441">
+        <v>29.9406</v>
+      </c>
+      <c r="G441">
+        <v>-209.7</v>
+      </c>
+    </row>
+    <row r="442" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A442">
+        <v>440</v>
+      </c>
+      <c r="B442">
+        <v>0</v>
+      </c>
+      <c r="C442">
+        <v>0.70801999999999998</v>
+      </c>
+      <c r="D442">
+        <v>29.421700000000001</v>
+      </c>
+      <c r="G442">
+        <v>-205.72</v>
+      </c>
+    </row>
+    <row r="443" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A443">
+        <v>441</v>
+      </c>
+      <c r="B443">
+        <v>0</v>
+      </c>
+      <c r="C443">
+        <v>0.707986</v>
+      </c>
+      <c r="D443">
+        <v>28.139800000000001</v>
+      </c>
+      <c r="G443">
+        <v>-201.63</v>
+      </c>
+    </row>
+    <row r="444" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A444">
+        <v>442</v>
+      </c>
+      <c r="B444">
+        <v>0</v>
+      </c>
+      <c r="C444">
+        <v>0.70796800000000004</v>
+      </c>
+      <c r="D444">
+        <v>26.332799999999999</v>
+      </c>
+      <c r="G444">
+        <v>-197.42</v>
+      </c>
+    </row>
+    <row r="445" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A445">
+        <v>443</v>
+      </c>
+      <c r="B445">
+        <v>0</v>
+      </c>
+      <c r="C445">
+        <v>0.70796099999999995</v>
+      </c>
+      <c r="D445">
+        <v>24.548300000000001</v>
+      </c>
+      <c r="G445">
+        <v>-193.1</v>
+      </c>
+    </row>
+    <row r="446" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A446">
+        <v>444</v>
+      </c>
+      <c r="B446">
+        <v>0</v>
+      </c>
+      <c r="C446">
+        <v>0.70795600000000003</v>
+      </c>
+      <c r="D446">
+        <v>23.157599999999999</v>
+      </c>
+      <c r="G446">
+        <v>-67.66</v>
+      </c>
+    </row>
+    <row r="447" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A447">
+        <v>445</v>
+      </c>
+      <c r="B447">
+        <v>0</v>
+      </c>
+      <c r="C447">
+        <v>0.70794900000000005</v>
+      </c>
+      <c r="D447">
+        <v>22.267499999999998</v>
+      </c>
+      <c r="G447">
+        <v>-63.11</v>
+      </c>
+    </row>
+    <row r="448" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A448">
+        <v>446</v>
+      </c>
+      <c r="B448">
+        <v>0</v>
+      </c>
+      <c r="C448">
+        <v>0.70794000000000001</v>
+      </c>
+      <c r="D448">
+        <v>21.875399999999999</v>
+      </c>
+      <c r="G448">
+        <v>264.58999999999997</v>
+      </c>
+    </row>
+    <row r="449" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A449">
+        <v>447</v>
+      </c>
+      <c r="B449">
+        <v>0</v>
+      </c>
+      <c r="C449">
+        <v>0.70792699999999997</v>
+      </c>
+      <c r="D449">
+        <v>21.973099999999999</v>
+      </c>
+      <c r="G449">
+        <v>269.39</v>
+      </c>
+    </row>
+    <row r="450" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A450">
+        <v>448</v>
+      </c>
+      <c r="B450">
+        <v>0</v>
+      </c>
+      <c r="C450">
+        <v>0.70791400000000004</v>
+      </c>
+      <c r="D450">
+        <v>22.492100000000001</v>
+      </c>
+      <c r="G450">
+        <v>301.3</v>
+      </c>
+    </row>
+    <row r="451" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A451">
+        <v>449</v>
+      </c>
+      <c r="B451">
+        <v>0</v>
+      </c>
+      <c r="C451">
+        <v>0.70790500000000001</v>
+      </c>
+      <c r="D451">
+        <v>23.141100000000002</v>
+      </c>
+      <c r="G451">
+        <v>351.63</v>
+      </c>
+    </row>
+    <row r="452" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A452">
+        <v>450</v>
+      </c>
+      <c r="B452">
+        <v>0</v>
+      </c>
+      <c r="C452">
+        <v>0.70790399999999998</v>
+      </c>
+      <c r="D452">
+        <v>23.699100000000001</v>
+      </c>
+      <c r="G452">
+        <v>356.79</v>
+      </c>
+    </row>
+    <row r="453" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A453">
+        <v>451</v>
+      </c>
+      <c r="B453">
+        <v>0</v>
+      </c>
+      <c r="C453">
+        <v>0.70791000000000004</v>
+      </c>
+      <c r="D453">
+        <v>24.2087</v>
+      </c>
+      <c r="G453">
+        <v>362.07</v>
+      </c>
+    </row>
+    <row r="454" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A454">
+        <v>452</v>
+      </c>
+      <c r="B454">
+        <v>0</v>
+      </c>
+      <c r="C454">
+        <v>0.70792600000000006</v>
+      </c>
+      <c r="D454">
+        <v>24.729199999999999</v>
+      </c>
+      <c r="G454">
+        <v>367.47</v>
+      </c>
+    </row>
+    <row r="455" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A455">
+        <v>453</v>
+      </c>
+      <c r="B455">
+        <v>0</v>
+      </c>
+      <c r="C455">
+        <v>0.707955</v>
+      </c>
+      <c r="D455">
+        <v>25.245000000000001</v>
+      </c>
+      <c r="G455">
+        <v>408.29</v>
+      </c>
+    </row>
+    <row r="456" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A456">
+        <v>454</v>
+      </c>
+      <c r="B456">
+        <v>0</v>
+      </c>
+      <c r="C456">
+        <v>0.70799299999999998</v>
+      </c>
+      <c r="D456">
+        <v>25.6599</v>
+      </c>
+      <c r="G456">
+        <v>413.94</v>
+      </c>
+    </row>
+    <row r="457" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A457">
+        <v>455</v>
+      </c>
+      <c r="B457">
+        <v>0</v>
+      </c>
+      <c r="C457">
+        <v>0.70802900000000002</v>
+      </c>
+      <c r="D457">
+        <v>25.832599999999999</v>
+      </c>
+      <c r="G457">
+        <v>419.72</v>
+      </c>
+    </row>
+    <row r="458" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A458">
+        <v>456</v>
+      </c>
+      <c r="B458">
+        <v>0</v>
+      </c>
+      <c r="C458">
+        <v>0.70805700000000005</v>
+      </c>
+      <c r="D458">
+        <v>25.716999999999999</v>
+      </c>
+      <c r="G458">
+        <v>425.62</v>
+      </c>
+    </row>
+    <row r="459" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A459">
+        <v>457</v>
+      </c>
+      <c r="B459">
+        <v>0</v>
+      </c>
+      <c r="C459">
+        <v>0.70808000000000004</v>
+      </c>
+      <c r="D459">
+        <v>25.421700000000001</v>
+      </c>
+      <c r="G459">
+        <v>398.05</v>
+      </c>
+    </row>
+    <row r="460" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A460">
+        <v>458</v>
+      </c>
+      <c r="B460">
+        <v>0</v>
+      </c>
+      <c r="C460">
+        <v>0.70810200000000001</v>
+      </c>
+      <c r="D460">
+        <v>25.058599999999998</v>
+      </c>
+      <c r="G460">
+        <v>404.21</v>
+      </c>
+    </row>
+    <row r="461" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A461">
+        <v>459</v>
+      </c>
+      <c r="B461">
+        <v>0</v>
+      </c>
+      <c r="C461">
+        <v>0.70812900000000001</v>
+      </c>
+      <c r="D461">
+        <v>24.6539</v>
+      </c>
+      <c r="G461">
+        <v>410.5</v>
+      </c>
+    </row>
+    <row r="462" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A462">
+        <v>460</v>
+      </c>
+      <c r="B462">
+        <v>0</v>
+      </c>
+      <c r="C462">
+        <v>0.70816599999999996</v>
+      </c>
+      <c r="D462">
+        <v>24.1585</v>
+      </c>
+      <c r="G462">
+        <v>416.91</v>
+      </c>
+    </row>
+    <row r="463" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A463">
+        <v>461</v>
+      </c>
+      <c r="B463">
+        <v>0</v>
+      </c>
+      <c r="C463">
+        <v>0.70822099999999999</v>
+      </c>
+      <c r="D463">
+        <v>23.4239</v>
+      </c>
+      <c r="G463">
+        <v>229.76</v>
+      </c>
+    </row>
+    <row r="464" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A464">
+        <v>462</v>
+      </c>
+      <c r="B464">
+        <v>0</v>
+      </c>
+      <c r="C464">
+        <v>0.70829500000000001</v>
+      </c>
+      <c r="D464">
+        <v>22.332000000000001</v>
+      </c>
+      <c r="G464">
+        <v>236.45</v>
+      </c>
+    </row>
+    <row r="465" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A465">
+        <v>463</v>
+      </c>
+      <c r="B465">
+        <v>0</v>
+      </c>
+      <c r="C465">
+        <v>0.70837399999999995</v>
+      </c>
+      <c r="D465">
+        <v>21.450800000000001</v>
+      </c>
+      <c r="G465">
+        <v>121.76</v>
+      </c>
+    </row>
+    <row r="466" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A466">
+        <v>464</v>
+      </c>
+      <c r="B466">
+        <v>0</v>
+      </c>
+      <c r="C466">
+        <v>0.70844700000000005</v>
+      </c>
+      <c r="D466">
+        <v>21.5106</v>
+      </c>
+      <c r="G466">
+        <v>14.71</v>
+      </c>
+    </row>
+    <row r="467" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A467">
+        <v>465</v>
+      </c>
+      <c r="B467">
+        <v>0</v>
+      </c>
+      <c r="C467">
+        <v>0.70852199999999999</v>
+      </c>
+      <c r="D467">
+        <v>22.286999999999999</v>
+      </c>
+      <c r="G467">
+        <v>21.79</v>
+      </c>
+    </row>
+    <row r="468" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A468">
+        <v>466</v>
+      </c>
+      <c r="B468">
+        <v>0</v>
+      </c>
+      <c r="C468">
+        <v>0.70861200000000002</v>
+      </c>
+      <c r="D468">
+        <v>23.415199999999999</v>
+      </c>
+      <c r="G468">
+        <v>29.01</v>
+      </c>
+    </row>
+    <row r="469" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A469">
+        <v>467</v>
+      </c>
+      <c r="B469">
+        <v>0</v>
+      </c>
+      <c r="C469">
+        <v>0.70871099999999998</v>
+      </c>
+      <c r="D469">
+        <v>24.684899999999999</v>
+      </c>
+      <c r="G469">
+        <v>36.36</v>
+      </c>
+    </row>
+    <row r="470" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A470">
+        <v>468</v>
+      </c>
+      <c r="B470">
+        <v>0</v>
+      </c>
+      <c r="C470">
+        <v>0.70879499999999995</v>
+      </c>
+      <c r="D470">
+        <v>25.8873</v>
+      </c>
+      <c r="G470">
+        <v>-8.15</v>
+      </c>
+    </row>
+    <row r="471" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A471">
+        <v>469</v>
+      </c>
+      <c r="B471">
+        <v>0</v>
+      </c>
+      <c r="C471">
+        <v>0.708843</v>
+      </c>
+      <c r="D471">
+        <v>26.803100000000001</v>
+      </c>
+      <c r="G471">
+        <v>-0.52</v>
+      </c>
+    </row>
+    <row r="472" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A472">
+        <v>470</v>
+      </c>
+      <c r="B472">
+        <v>0</v>
+      </c>
+      <c r="C472">
+        <v>0.70885799999999999</v>
+      </c>
+      <c r="D472">
+        <v>27.319099999999999</v>
+      </c>
+      <c r="G472">
+        <v>7.25</v>
+      </c>
+    </row>
+    <row r="473" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A473">
+        <v>471</v>
+      </c>
+      <c r="B473">
+        <v>0</v>
+      </c>
+      <c r="C473">
+        <v>0.70885799999999999</v>
+      </c>
+      <c r="D473">
+        <v>27.502500000000001</v>
+      </c>
+      <c r="G473">
+        <v>15.16</v>
+      </c>
+    </row>
+    <row r="474" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A474">
+        <v>472</v>
+      </c>
+      <c r="B474">
+        <v>0</v>
+      </c>
+      <c r="C474">
+        <v>0.70785900000000002</v>
+      </c>
+      <c r="D474">
+        <v>27.530200000000001</v>
+      </c>
+      <c r="G474">
+        <v>-62.29</v>
+      </c>
+    </row>
+    <row r="475" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A475">
+        <v>473</v>
+      </c>
+      <c r="B475">
+        <v>0</v>
+      </c>
+      <c r="C475">
+        <v>0.70886499999999997</v>
+      </c>
+      <c r="D475">
+        <v>27.5885</v>
+      </c>
+      <c r="G475">
+        <v>-54.1</v>
+      </c>
+    </row>
+    <row r="476" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A476">
+        <v>474</v>
+      </c>
+      <c r="B476">
+        <v>0</v>
+      </c>
+      <c r="C476">
+        <v>0.70887699999999998</v>
+      </c>
+      <c r="D476">
+        <v>27.832799999999999</v>
+      </c>
+      <c r="G476">
+        <v>-45.77</v>
+      </c>
+    </row>
+    <row r="477" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A477">
+        <v>475</v>
+      </c>
+      <c r="B477">
+        <v>0</v>
+      </c>
+      <c r="C477">
+        <v>0.70889599999999997</v>
+      </c>
+      <c r="D477">
+        <v>28.3201</v>
+      </c>
+      <c r="G477">
+        <v>-37.29</v>
+      </c>
+    </row>
+    <row r="478" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A478">
+        <v>476</v>
+      </c>
+      <c r="B478">
+        <v>0</v>
+      </c>
+      <c r="C478">
+        <v>0.70891899999999997</v>
+      </c>
+      <c r="D478">
+        <v>28.9359</v>
+      </c>
+      <c r="G478">
+        <v>-267.67</v>
+      </c>
+    </row>
+    <row r="479" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A479">
+        <v>477</v>
+      </c>
+      <c r="B479">
+        <v>0</v>
+      </c>
+      <c r="C479">
+        <v>0.70893899999999999</v>
+      </c>
+      <c r="D479">
+        <v>29.510100000000001</v>
+      </c>
+      <c r="G479">
+        <v>-258.91000000000003</v>
+      </c>
+    </row>
+    <row r="480" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A480">
+        <v>478</v>
+      </c>
+      <c r="B480">
+        <v>0</v>
+      </c>
+      <c r="C480">
+        <v>0.70894999999999997</v>
+      </c>
+      <c r="D480">
+        <v>29.9636</v>
+      </c>
+      <c r="G480">
+        <v>-249.99</v>
+      </c>
+    </row>
+    <row r="481" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A481">
+        <v>479</v>
+      </c>
+      <c r="B481">
+        <v>0</v>
+      </c>
+      <c r="C481">
+        <v>0.708951</v>
+      </c>
+      <c r="D481">
+        <v>30.2883</v>
+      </c>
+      <c r="G481">
+        <v>-361.94</v>
+      </c>
+    </row>
+    <row r="482" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A482">
+        <v>480</v>
+      </c>
+      <c r="B482">
+        <v>0</v>
+      </c>
+      <c r="C482">
+        <v>0.70894999999999997</v>
+      </c>
+      <c r="D482">
+        <v>30.485800000000001</v>
+      </c>
+      <c r="G482">
+        <v>-352.73</v>
+      </c>
+    </row>
+    <row r="483" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A483">
+        <v>481</v>
+      </c>
+      <c r="B483">
+        <v>0</v>
+      </c>
+      <c r="C483">
+        <v>0.70895600000000003</v>
+      </c>
+      <c r="D483">
+        <v>30.5304</v>
+      </c>
+      <c r="G483">
+        <v>-343.38</v>
+      </c>
+    </row>
+    <row r="484" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A484">
+        <v>482</v>
+      </c>
+      <c r="B484">
+        <v>0</v>
+      </c>
+      <c r="C484">
+        <v>0.70897200000000005</v>
+      </c>
+      <c r="D484">
+        <v>30.324400000000001</v>
+      </c>
+      <c r="G484">
+        <v>-333.88</v>
+      </c>
+    </row>
+    <row r="485" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A485">
+        <v>483</v>
+      </c>
+      <c r="B485">
+        <v>0</v>
+      </c>
+      <c r="C485">
+        <v>0.70899400000000001</v>
+      </c>
+      <c r="D485">
+        <v>29.726400000000002</v>
+      </c>
+      <c r="G485">
+        <v>-324.22000000000003</v>
+      </c>
+    </row>
+    <row r="486" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A486">
+        <v>484</v>
+      </c>
+      <c r="B486">
+        <v>0</v>
+      </c>
+      <c r="C486">
+        <v>0.709013</v>
+      </c>
+      <c r="D486">
+        <v>28.998899999999999</v>
+      </c>
+      <c r="G486">
+        <v>-367.92</v>
+      </c>
+    </row>
+    <row r="487" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A487">
+        <v>485</v>
+      </c>
+      <c r="B487">
+        <v>0</v>
+      </c>
+      <c r="C487">
+        <v>0.70902900000000002</v>
+      </c>
+      <c r="D487">
+        <v>28.8066</v>
+      </c>
+      <c r="G487">
+        <v>-357.96</v>
+      </c>
+    </row>
+    <row r="488" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A488">
+        <v>486</v>
+      </c>
+      <c r="B488">
+        <v>0</v>
+      </c>
+      <c r="C488">
+        <v>0.70904100000000003</v>
+      </c>
+      <c r="D488">
+        <v>29.1662</v>
+      </c>
+      <c r="G488">
+        <v>-347.85</v>
+      </c>
+    </row>
+    <row r="489" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A489">
+        <v>487</v>
+      </c>
+      <c r="B489">
+        <v>0</v>
+      </c>
+      <c r="C489">
+        <v>0.70905099999999999</v>
+      </c>
+      <c r="D489">
+        <v>29.791599999999999</v>
+      </c>
+      <c r="G489">
+        <v>-337.59</v>
+      </c>
+    </row>
+    <row r="490" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A490">
+        <v>488</v>
+      </c>
+      <c r="B490">
+        <v>0</v>
+      </c>
+      <c r="C490">
+        <v>0.70906100000000005</v>
+      </c>
+      <c r="D490">
+        <v>30.536799999999999</v>
+      </c>
+      <c r="G490">
+        <v>-327.17</v>
+      </c>
+    </row>
+    <row r="491" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A491">
+        <v>489</v>
+      </c>
+      <c r="B491">
+        <v>0</v>
+      </c>
+      <c r="C491">
+        <v>0.70906999999999998</v>
+      </c>
+      <c r="D491">
+        <v>31.324200000000001</v>
+      </c>
+      <c r="G491">
+        <v>-361.6</v>
+      </c>
+    </row>
+    <row r="492" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A492">
+        <v>490</v>
+      </c>
+      <c r="B492">
+        <v>0</v>
+      </c>
+      <c r="C492">
+        <v>0.70907900000000001</v>
+      </c>
+      <c r="D492">
+        <v>32.064799999999998</v>
+      </c>
+      <c r="G492">
+        <v>-350.87</v>
+      </c>
+    </row>
+    <row r="493" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A493">
+        <v>491</v>
+      </c>
+      <c r="B493">
+        <v>0</v>
+      </c>
+      <c r="C493">
+        <v>0.70908700000000002</v>
+      </c>
+      <c r="D493">
+        <v>32.641500000000001</v>
+      </c>
+      <c r="G493">
+        <v>-353.99</v>
+      </c>
+    </row>
+    <row r="494" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A494">
+        <v>492</v>
+      </c>
+      <c r="B494">
+        <v>0</v>
+      </c>
+      <c r="C494">
+        <v>0.70909500000000003</v>
+      </c>
+      <c r="D494">
+        <v>32.937800000000003</v>
+      </c>
+      <c r="G494">
+        <v>-342.95</v>
+      </c>
+    </row>
+    <row r="495" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A495">
+        <v>493</v>
+      </c>
+      <c r="B495">
+        <v>0</v>
+      </c>
+      <c r="C495">
+        <v>0.70910200000000001</v>
+      </c>
+      <c r="D495">
+        <v>32.892099999999999</v>
+      </c>
+      <c r="G495">
+        <v>-346.24</v>
+      </c>
+    </row>
+    <row r="496" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A496">
+        <v>494</v>
+      </c>
+      <c r="B496">
+        <v>0</v>
+      </c>
+      <c r="C496">
+        <v>0.70910899999999999</v>
+      </c>
+      <c r="D496">
+        <v>32.551499999999997</v>
+      </c>
+      <c r="G496">
+        <v>-334.88</v>
+      </c>
+    </row>
+    <row r="497" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A497">
+        <v>495</v>
+      </c>
+      <c r="B497">
+        <v>0</v>
+      </c>
+      <c r="C497">
+        <v>0.70911100000000005</v>
+      </c>
+      <c r="D497">
+        <v>32.141500000000001</v>
+      </c>
+      <c r="G497">
+        <v>-337.36</v>
+      </c>
+    </row>
+    <row r="498" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A498">
+        <v>496</v>
+      </c>
+      <c r="B498">
+        <v>0</v>
+      </c>
+      <c r="C498">
+        <v>0.70910499999999999</v>
+      </c>
+      <c r="D498">
+        <v>32.1143</v>
+      </c>
+      <c r="G498">
+        <v>-325.68</v>
+      </c>
+    </row>
+    <row r="499" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A499">
+        <v>497</v>
+      </c>
+      <c r="B499">
+        <v>0</v>
+      </c>
+      <c r="C499">
+        <v>0.70909</v>
+      </c>
+      <c r="D499">
+        <v>32.835099999999997</v>
+      </c>
+      <c r="G499">
+        <v>-320.33</v>
+      </c>
+    </row>
+    <row r="500" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A500">
+        <v>498</v>
+      </c>
+      <c r="B500">
+        <v>0</v>
+      </c>
+      <c r="C500">
+        <v>0.70907600000000004</v>
+      </c>
+      <c r="D500">
+        <v>34.119999999999997</v>
+      </c>
+      <c r="G500">
+        <v>-308.32</v>
+      </c>
+    </row>
+    <row r="501" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A501">
+        <v>499</v>
+      </c>
+      <c r="B501">
+        <v>0</v>
+      </c>
+      <c r="C501">
+        <v>0.70907399999999998</v>
+      </c>
+      <c r="D501">
+        <v>35.527700000000003</v>
+      </c>
+      <c r="G501">
+        <v>-283.64999999999998</v>
+      </c>
+    </row>
+    <row r="502" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A502">
+        <v>500</v>
+      </c>
+      <c r="B502">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="C502">
+        <v>0.70907699999999996</v>
+      </c>
+      <c r="D502">
+        <v>36.775199999999998</v>
+      </c>
+      <c r="G502">
+        <v>-271.31</v>
+      </c>
+    </row>
+    <row r="503" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A503">
+        <v>501</v>
+      </c>
+      <c r="B503">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="C503">
+        <v>0.70908099999999996</v>
+      </c>
+      <c r="D503">
+        <v>37.729500000000002</v>
+      </c>
+      <c r="G503">
+        <v>-226.14</v>
+      </c>
+    </row>
+    <row r="504" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A504">
+        <v>502</v>
+      </c>
+      <c r="B504">
+        <v>2.4000000000000001E-5</v>
+      </c>
+      <c r="C504">
+        <v>0.70908199999999999</v>
+      </c>
+      <c r="D504">
+        <v>38.3279</v>
+      </c>
+      <c r="G504">
+        <v>-213.47</v>
+      </c>
+    </row>
+    <row r="505" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A505">
+        <v>503</v>
+      </c>
+      <c r="B505">
+        <v>9.5E-4</v>
+      </c>
+      <c r="C505">
+        <v>0.70908300000000002</v>
+      </c>
+      <c r="D505">
+        <v>38.560299999999998</v>
+      </c>
+      <c r="G505">
+        <v>-213.97</v>
+      </c>
+    </row>
+    <row r="506" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A506">
+        <v>504</v>
+      </c>
+      <c r="B506">
+        <v>3.1700000000000001E-3</v>
+      </c>
+      <c r="C506">
+        <v>0.70908300000000002</v>
+      </c>
+      <c r="D506">
+        <v>38.469099999999997</v>
+      </c>
+      <c r="G506">
+        <v>-183.29</v>
+      </c>
+    </row>
+    <row r="507" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A507">
+        <v>505</v>
+      </c>
+      <c r="B507">
+        <v>8.9599999999999992E-3</v>
+      </c>
+      <c r="C507">
+        <v>0.70908400000000005</v>
+      </c>
+      <c r="D507">
+        <v>38.133699999999997</v>
+      </c>
+      <c r="G507">
+        <v>-144.12</v>
+      </c>
+    </row>
+    <row r="508" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A508">
+        <v>506</v>
+      </c>
+      <c r="B508">
+        <v>2.1600000000000001E-2</v>
+      </c>
+      <c r="C508">
+        <v>0.70913800000000005</v>
+      </c>
+      <c r="D508">
+        <v>37.642800000000001</v>
+      </c>
+      <c r="G508">
+        <v>-130.77000000000001</v>
+      </c>
+    </row>
+    <row r="509" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A509">
+        <v>507</v>
+      </c>
+      <c r="B509">
+        <v>4.437E-2</v>
+      </c>
+      <c r="C509">
+        <v>0.70916000000000001</v>
+      </c>
+      <c r="D509">
+        <v>37.069299999999998</v>
+      </c>
+      <c r="G509">
+        <v>-128.75</v>
+      </c>
+    </row>
+    <row r="510" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A510">
+        <v>508</v>
+      </c>
+      <c r="B510">
+        <v>7.7670000000000003E-2</v>
+      </c>
+      <c r="C510">
+        <v>0.70894299999999999</v>
+      </c>
+      <c r="D510">
+        <v>36.461100000000002</v>
+      </c>
+      <c r="G510">
+        <v>-115.07</v>
+      </c>
+    </row>
+    <row r="511" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A511">
+        <v>509</v>
+      </c>
+      <c r="B511">
+        <v>0.11588</v>
+      </c>
+      <c r="C511">
+        <v>0.70880399999999999</v>
+      </c>
+      <c r="D511">
+        <v>35.845799999999997</v>
+      </c>
+      <c r="G511">
+        <v>-103.71</v>
+      </c>
+    </row>
+    <row r="512" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A512">
+        <v>510</v>
+      </c>
+      <c r="B512">
+        <v>0.14731</v>
+      </c>
+      <c r="C512">
+        <v>0.70879000000000003</v>
+      </c>
+      <c r="D512">
+        <v>35.240699999999997</v>
+      </c>
+      <c r="G512">
+        <v>-89.67</v>
+      </c>
+    </row>
+    <row r="513" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A513">
+        <v>511</v>
+      </c>
+      <c r="B513">
+        <v>0.11588</v>
+      </c>
+      <c r="C513">
+        <v>0.70877400000000002</v>
+      </c>
+      <c r="D513">
+        <v>34.658799999999999</v>
+      </c>
+      <c r="G513">
+        <v>-75.459999999999994</v>
+      </c>
+    </row>
+    <row r="514" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A514">
+        <v>512</v>
+      </c>
+      <c r="B514">
+        <v>0.14731</v>
+      </c>
+      <c r="C514">
+        <v>0.708758</v>
+      </c>
+      <c r="D514">
+        <v>34.110700000000001</v>
+      </c>
+      <c r="G514">
+        <v>-61.08</v>
+      </c>
+    </row>
+    <row r="515" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A515">
+        <v>513</v>
+      </c>
+      <c r="B515">
+        <v>0.15958</v>
+      </c>
+      <c r="C515">
+        <v>0.70873900000000001</v>
+      </c>
+      <c r="D515">
+        <v>33.603700000000003</v>
+      </c>
+      <c r="G515">
+        <v>-40.020000000000003</v>
+      </c>
+    </row>
+    <row r="516" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A516">
+        <v>514</v>
+      </c>
+      <c r="B516">
+        <v>0.14731</v>
+      </c>
+      <c r="C516">
+        <v>0.70872000000000002</v>
+      </c>
+      <c r="D516">
+        <v>33.145600000000002</v>
+      </c>
+      <c r="G516">
+        <v>-25.28</v>
+      </c>
+    </row>
+    <row r="517" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A517">
+        <v>515</v>
+      </c>
+      <c r="B517">
+        <v>0.11588</v>
+      </c>
+      <c r="C517">
+        <v>0.70870299999999997</v>
+      </c>
+      <c r="D517">
+        <v>32.797499999999999</v>
+      </c>
+      <c r="G517">
+        <v>-10.37</v>
+      </c>
+    </row>
+    <row r="518" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A518">
+        <v>516</v>
+      </c>
+      <c r="B518">
+        <v>7.7670000000000003E-2</v>
+      </c>
+      <c r="C518">
+        <v>0.70868699999999996</v>
+      </c>
+      <c r="D518">
+        <v>32.902299999999997</v>
+      </c>
+      <c r="G518">
+        <v>2.23</v>
+      </c>
+    </row>
+    <row r="519" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A519">
+        <v>517</v>
+      </c>
+      <c r="B519">
+        <v>8.9599999999999992E-3</v>
+      </c>
+      <c r="C519">
+        <v>0.708673</v>
+      </c>
+      <c r="D519">
+        <v>33.375999999999998</v>
+      </c>
+      <c r="G519">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="520" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A520">
+        <v>518</v>
+      </c>
+      <c r="B520">
+        <v>9.5E-4</v>
+      </c>
+      <c r="C520">
+        <v>0.70865800000000001</v>
+      </c>
+      <c r="D520">
+        <v>33.551299999999998</v>
+      </c>
+      <c r="G520">
+        <v>32.950000000000003</v>
+      </c>
+    </row>
+    <row r="521" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A521">
+        <v>519</v>
+      </c>
+      <c r="B521">
+        <v>2.4000000000000001E-4</v>
+      </c>
+      <c r="C521">
+        <v>0.70863900000000002</v>
+      </c>
+      <c r="D521">
+        <v>33.608499999999999</v>
+      </c>
+      <c r="G521">
+        <v>173.09</v>
+      </c>
+    </row>
+    <row r="522" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A522">
+        <v>520</v>
+      </c>
+      <c r="B522">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="C522">
+        <v>0.70861799999999997</v>
+      </c>
+      <c r="D522">
+        <v>33.6601</v>
+      </c>
+      <c r="G522">
+        <v>188.91</v>
       </c>
     </row>
   </sheetData>
